--- a/terms/patterns.xlsx
+++ b/terms/patterns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906FD38F-5BD0-CF48-83C2-A2EA58E51F73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F079EE56-EB2F-FE43-B2AF-D795080B3DC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22420" yWindow="-18320" windowWidth="19600" windowHeight="17000" activeTab="6" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="-22420" yWindow="-18320" windowWidth="19600" windowHeight="17000" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -9682,17 +9682,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10014,8 +10014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581405C8-F852-7340-B9C9-201B714E3AD5}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -10289,7 +10289,7 @@
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="45" t="s">
         <v>994</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -10335,7 +10335,7 @@
       <c r="AD2" s="2"/>
     </row>
     <row r="3" spans="1:30" s="26" customFormat="1">
-      <c r="A3" s="40"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="28" t="s">
         <v>14</v>
       </c>
@@ -10381,7 +10381,7 @@
       <c r="AD3" s="29"/>
     </row>
     <row r="4" spans="1:30" s="26" customFormat="1">
-      <c r="A4" s="40"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
@@ -10427,7 +10427,7 @@
       <c r="AD4" s="29"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="40"/>
+      <c r="A5" s="45"/>
       <c r="C5" t="s">
         <v>983</v>
       </c>
@@ -10460,7 +10460,7 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:30" s="11" customFormat="1">
-      <c r="A6" s="40"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="10" t="s">
         <v>1829</v>
       </c>
@@ -10496,7 +10496,7 @@
       <c r="U6" s="10"/>
     </row>
     <row r="7" spans="1:30" s="11" customFormat="1">
-      <c r="A7" s="40"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="10" t="s">
         <v>1829</v>
       </c>
@@ -10548,7 +10548,7 @@
       <c r="AD7" s="10"/>
     </row>
     <row r="8" spans="1:30" s="11" customFormat="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="10" t="s">
         <v>1829</v>
       </c>
@@ -10600,7 +10600,7 @@
       <c r="AD8" s="10"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="45" t="s">
         <v>995</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -10646,7 +10646,7 @@
       <c r="AD9" s="2"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="40"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="1" t="s">
         <v>1828</v>
       </c>
@@ -10690,7 +10690,7 @@
       <c r="AD10" s="2"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="40"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="1" t="s">
         <v>1828</v>
       </c>
@@ -10734,7 +10734,7 @@
       <c r="AD11" s="2"/>
     </row>
     <row r="12" spans="1:30" s="26" customFormat="1">
-      <c r="A12" s="40"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="28" t="s">
         <v>1828</v>
       </c>
@@ -10778,7 +10778,7 @@
       <c r="AD12" s="29"/>
     </row>
     <row r="13" spans="1:30" s="26" customFormat="1">
-      <c r="A13" s="40"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="28" t="s">
         <v>1828</v>
       </c>
@@ -10822,7 +10822,7 @@
       <c r="AD13" s="29"/>
     </row>
     <row r="14" spans="1:30" s="11" customFormat="1">
-      <c r="A14" s="40"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="10" t="s">
         <v>1829</v>
       </c>
@@ -10872,7 +10872,7 @@
       <c r="AD14" s="10"/>
     </row>
     <row r="15" spans="1:30" s="11" customFormat="1">
-      <c r="A15" s="40"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="10" t="s">
         <v>1829</v>
       </c>
@@ -10920,7 +10920,7 @@
       <c r="AD15" s="10"/>
     </row>
     <row r="16" spans="1:30" s="26" customFormat="1">
-      <c r="A16" s="40"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="28" t="s">
         <v>1828</v>
       </c>
@@ -10964,7 +10964,7 @@
       <c r="AD16" s="29"/>
     </row>
     <row r="17" spans="1:30" s="11" customFormat="1">
-      <c r="A17" s="40"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="10" t="s">
         <v>1829</v>
       </c>
@@ -11016,7 +11016,7 @@
       <c r="AD17" s="10"/>
     </row>
     <row r="18" spans="1:30" s="11" customFormat="1">
-      <c r="A18" s="40"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="10" t="s">
         <v>1829</v>
       </c>
@@ -11029,7 +11029,7 @@
       </c>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="40"/>
+      <c r="A19" s="45"/>
       <c r="C19" s="1" t="s">
         <v>983</v>
       </c>
@@ -11060,7 +11060,7 @@
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="40"/>
+      <c r="A20" s="45"/>
       <c r="C20" s="1" t="s">
         <v>983</v>
       </c>
@@ -11091,7 +11091,7 @@
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="40"/>
+      <c r="A21" s="45"/>
       <c r="C21" s="1" t="s">
         <v>983</v>
       </c>
@@ -11122,7 +11122,7 @@
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="40"/>
+      <c r="A22" s="45"/>
       <c r="E22" s="1" t="s">
         <v>343</v>
       </c>
@@ -11147,7 +11147,7 @@
       <c r="S22" s="2"/>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="40"/>
+      <c r="A23" s="45"/>
       <c r="E23" s="1" t="s">
         <v>343</v>
       </c>
@@ -11172,7 +11172,7 @@
       <c r="S23" s="2"/>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="45" t="s">
         <v>996</v>
       </c>
       <c r="E24" s="2"/>
@@ -11195,7 +11195,7 @@
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="40"/>
+      <c r="A25" s="45"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="7" t="s">
@@ -11216,7 +11216,7 @@
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="40"/>
+      <c r="A26" s="45"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="7" t="s">
@@ -11237,7 +11237,7 @@
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="40"/>
+      <c r="A27" s="45"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="7" t="s">
@@ -11258,7 +11258,7 @@
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="40"/>
+      <c r="A28" s="45"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="7" t="s">
@@ -11279,7 +11279,7 @@
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="40"/>
+      <c r="A29" s="45"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="7" t="s">
@@ -11300,7 +11300,7 @@
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" s="40"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="1" t="s">
         <v>1828</v>
       </c>
@@ -11344,7 +11344,7 @@
       <c r="AD30" s="2"/>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="40"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="1" t="s">
         <v>1828</v>
       </c>
@@ -11388,7 +11388,7 @@
       <c r="AD31" s="2"/>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="40"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="1" t="s">
         <v>1828</v>
       </c>
@@ -11432,7 +11432,7 @@
       <c r="AD32" s="2"/>
     </row>
     <row r="33" spans="1:30" s="26" customFormat="1">
-      <c r="A33" s="40"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="28" t="s">
         <v>1828</v>
       </c>
@@ -11478,7 +11478,7 @@
       <c r="AD33" s="29"/>
     </row>
     <row r="34" spans="1:30" s="26" customFormat="1">
-      <c r="A34" s="40"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="28" t="s">
         <v>1828</v>
       </c>
@@ -11524,7 +11524,7 @@
       <c r="AD34" s="29"/>
     </row>
     <row r="35" spans="1:30" s="11" customFormat="1">
-      <c r="A35" s="40"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="10" t="s">
         <v>1829</v>
       </c>
@@ -11576,7 +11576,7 @@
       <c r="AD35" s="10"/>
     </row>
     <row r="36" spans="1:30" s="11" customFormat="1">
-      <c r="A36" s="40"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="10" t="s">
         <v>1829</v>
       </c>
@@ -11628,7 +11628,7 @@
       <c r="AD36" s="10"/>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="40"/>
+      <c r="A37" s="45"/>
       <c r="E37" s="1" t="s">
         <v>15</v>
       </c>
@@ -11654,7 +11654,7 @@
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="1:30">
-      <c r="A38" s="40"/>
+      <c r="A38" s="45"/>
       <c r="E38" s="1" t="s">
         <v>343</v>
       </c>
@@ -11679,7 +11679,7 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="1:30">
-      <c r="A39" s="40"/>
+      <c r="A39" s="45"/>
       <c r="E39" s="1" t="s">
         <v>343</v>
       </c>
@@ -11704,7 +11704,7 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="1:30">
-      <c r="A40" s="40"/>
+      <c r="A40" s="45"/>
       <c r="E40" s="1" t="s">
         <v>343</v>
       </c>
@@ -11729,7 +11729,7 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="1:30">
-      <c r="A41" s="40"/>
+      <c r="A41" s="45"/>
       <c r="E41" s="1" t="s">
         <v>343</v>
       </c>
@@ -11754,7 +11754,7 @@
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="1:30">
-      <c r="A42" s="40"/>
+      <c r="A42" s="45"/>
       <c r="E42" s="1" t="s">
         <v>343</v>
       </c>
@@ -11778,7 +11778,7 @@
       <c r="S42" s="2"/>
     </row>
     <row r="43" spans="1:30" s="11" customFormat="1">
-      <c r="A43" s="40"/>
+      <c r="A43" s="45"/>
       <c r="C43" s="10" t="s">
         <v>983</v>
       </c>
@@ -11809,7 +11809,7 @@
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:30" s="11" customFormat="1">
-      <c r="A44" s="40"/>
+      <c r="A44" s="45"/>
       <c r="C44" s="10" t="s">
         <v>983</v>
       </c>
@@ -11842,7 +11842,7 @@
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:30" s="11" customFormat="1">
-      <c r="A45" s="40"/>
+      <c r="A45" s="45"/>
       <c r="C45" s="10" t="s">
         <v>983</v>
       </c>
@@ -11875,7 +11875,7 @@
       <c r="U45" s="10"/>
     </row>
     <row r="46" spans="1:30" s="11" customFormat="1">
-      <c r="A46" s="40"/>
+      <c r="A46" s="45"/>
       <c r="C46" s="10" t="s">
         <v>983</v>
       </c>
@@ -11906,7 +11906,7 @@
       <c r="U46" s="10"/>
     </row>
     <row r="47" spans="1:30" s="11" customFormat="1">
-      <c r="A47" s="40"/>
+      <c r="A47" s="45"/>
       <c r="C47" s="10" t="s">
         <v>983</v>
       </c>
@@ -11939,7 +11939,7 @@
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:30" s="11" customFormat="1">
-      <c r="A48" s="40"/>
+      <c r="A48" s="45"/>
       <c r="C48" s="10" t="s">
         <v>983</v>
       </c>
@@ -11970,7 +11970,7 @@
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:30" s="11" customFormat="1">
-      <c r="A49" s="40"/>
+      <c r="A49" s="45"/>
       <c r="C49" s="10" t="s">
         <v>983</v>
       </c>
@@ -12001,7 +12001,7 @@
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:30" s="11" customFormat="1">
-      <c r="A50" s="40"/>
+      <c r="A50" s="45"/>
       <c r="C50" s="10" t="s">
         <v>983</v>
       </c>
@@ -12034,7 +12034,7 @@
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:30" s="11" customFormat="1">
-      <c r="A51" s="40"/>
+      <c r="A51" s="45"/>
       <c r="C51" s="10" t="s">
         <v>983</v>
       </c>
@@ -12067,7 +12067,7 @@
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:30" s="11" customFormat="1">
-      <c r="A52" s="40"/>
+      <c r="A52" s="45"/>
       <c r="C52" s="10" t="s">
         <v>983</v>
       </c>
@@ -12100,7 +12100,7 @@
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:30">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="45" t="s">
         <v>997</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -12146,7 +12146,7 @@
       <c r="AD53" s="2"/>
     </row>
     <row r="54" spans="1:30">
-      <c r="A54" s="40"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="1" t="s">
         <v>1828</v>
       </c>
@@ -12190,7 +12190,7 @@
       <c r="AD54" s="2"/>
     </row>
     <row r="55" spans="1:30">
-      <c r="A55" s="40"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="1" t="s">
         <v>1828</v>
       </c>
@@ -12234,7 +12234,7 @@
       <c r="AD55" s="2"/>
     </row>
     <row r="56" spans="1:30" s="26" customFormat="1">
-      <c r="A56" s="40"/>
+      <c r="A56" s="45"/>
       <c r="B56" s="28" t="s">
         <v>1828</v>
       </c>
@@ -12282,7 +12282,7 @@
       <c r="AD56" s="29"/>
     </row>
     <row r="57" spans="1:30" s="26" customFormat="1">
-      <c r="A57" s="40"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="28" t="s">
         <v>1828</v>
       </c>
@@ -12330,7 +12330,7 @@
       <c r="AD57" s="29"/>
     </row>
     <row r="58" spans="1:30" s="11" customFormat="1">
-      <c r="A58" s="40"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
         <v>983</v>
@@ -12382,7 +12382,7 @@
       <c r="AD58" s="10"/>
     </row>
     <row r="59" spans="1:30" s="11" customFormat="1">
-      <c r="A59" s="40"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10" t="s">
         <v>983</v>
@@ -12434,7 +12434,7 @@
       <c r="AD59" s="10"/>
     </row>
     <row r="60" spans="1:30" s="11" customFormat="1">
-      <c r="A60" s="40"/>
+      <c r="A60" s="45"/>
       <c r="B60" s="9"/>
       <c r="C60" s="10" t="s">
         <v>983</v>
@@ -12460,7 +12460,7 @@
       <c r="U60" s="10"/>
     </row>
     <row r="61" spans="1:30">
-      <c r="A61" s="40"/>
+      <c r="A61" s="45"/>
       <c r="C61" s="17" t="s">
         <v>983</v>
       </c>
@@ -12486,7 +12486,7 @@
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="1:30" s="11" customFormat="1">
-      <c r="A62" s="40"/>
+      <c r="A62" s="45"/>
       <c r="C62" s="10" t="s">
         <v>983</v>
       </c>
@@ -12513,7 +12513,7 @@
       <c r="S62" s="10"/>
     </row>
     <row r="63" spans="1:30" s="11" customFormat="1">
-      <c r="A63" s="40"/>
+      <c r="A63" s="45"/>
       <c r="C63" s="10" t="s">
         <v>983</v>
       </c>
@@ -12540,7 +12540,7 @@
       <c r="S63" s="10"/>
     </row>
     <row r="64" spans="1:30">
-      <c r="A64" s="40"/>
+      <c r="A64" s="45"/>
       <c r="C64" s="17" t="s">
         <v>983</v>
       </c>
@@ -12567,7 +12567,7 @@
       <c r="S64" s="2"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="40"/>
+      <c r="A65" s="45"/>
       <c r="C65" s="17" t="s">
         <v>983</v>
       </c>
@@ -12594,7 +12594,7 @@
       <c r="S65" s="2"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="40"/>
+      <c r="A66" s="45"/>
       <c r="C66" s="17" t="s">
         <v>983</v>
       </c>
@@ -12621,7 +12621,7 @@
       <c r="S66" s="2"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="40"/>
+      <c r="A67" s="45"/>
       <c r="C67" s="17" t="s">
         <v>983</v>
       </c>
@@ -12647,7 +12647,7 @@
       <c r="R67" s="2"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="40"/>
+      <c r="A68" s="45"/>
       <c r="C68" s="17" t="s">
         <v>983</v>
       </c>
@@ -12674,7 +12674,7 @@
       <c r="S68" s="2"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="40"/>
+      <c r="A69" s="45"/>
       <c r="C69" s="17" t="s">
         <v>983</v>
       </c>
@@ -12703,7 +12703,7 @@
       <c r="P69" s="2"/>
     </row>
     <row r="70" spans="1:21" s="11" customFormat="1">
-      <c r="A70" s="40"/>
+      <c r="A70" s="45"/>
       <c r="C70" s="10" t="s">
         <v>983</v>
       </c>
@@ -12734,7 +12734,7 @@
       <c r="U70" s="10"/>
     </row>
     <row r="71" spans="1:21" s="11" customFormat="1">
-      <c r="A71" s="40"/>
+      <c r="A71" s="45"/>
       <c r="C71" s="10" t="s">
         <v>983</v>
       </c>
@@ -12767,7 +12767,7 @@
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" s="11" customFormat="1">
-      <c r="A72" s="40"/>
+      <c r="A72" s="45"/>
       <c r="C72" s="10" t="s">
         <v>983</v>
       </c>
@@ -12800,7 +12800,7 @@
       <c r="U72" s="10"/>
     </row>
     <row r="73" spans="1:21" s="11" customFormat="1">
-      <c r="A73" s="40"/>
+      <c r="A73" s="45"/>
       <c r="C73" s="10" t="s">
         <v>983</v>
       </c>
@@ -12833,7 +12833,7 @@
       <c r="U73" s="10"/>
     </row>
     <row r="74" spans="1:21" s="11" customFormat="1">
-      <c r="A74" s="40"/>
+      <c r="A74" s="45"/>
       <c r="C74" s="10" t="s">
         <v>983</v>
       </c>
@@ -12866,7 +12866,7 @@
       <c r="U74" s="10"/>
     </row>
     <row r="75" spans="1:21" s="11" customFormat="1">
-      <c r="A75" s="40"/>
+      <c r="A75" s="45"/>
       <c r="C75" s="10" t="s">
         <v>983</v>
       </c>
@@ -12899,7 +12899,7 @@
       <c r="U75" s="10"/>
     </row>
     <row r="76" spans="1:21" s="11" customFormat="1">
-      <c r="A76" s="40"/>
+      <c r="A76" s="45"/>
       <c r="C76" s="10" t="s">
         <v>983</v>
       </c>
@@ -12930,7 +12930,7 @@
       <c r="U76" s="10"/>
     </row>
     <row r="77" spans="1:21" s="11" customFormat="1">
-      <c r="A77" s="40"/>
+      <c r="A77" s="45"/>
       <c r="C77" s="10" t="s">
         <v>983</v>
       </c>
@@ -12963,7 +12963,7 @@
       <c r="U77" s="10"/>
     </row>
     <row r="78" spans="1:21" s="11" customFormat="1">
-      <c r="A78" s="40"/>
+      <c r="A78" s="45"/>
       <c r="C78" s="10" t="s">
         <v>983</v>
       </c>
@@ -12992,7 +12992,7 @@
       <c r="U78" s="10"/>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="40"/>
+      <c r="A79" s="45"/>
       <c r="C79" s="17" t="s">
         <v>983</v>
       </c>
@@ -13016,7 +13016,7 @@
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="40"/>
+      <c r="A80" s="45"/>
       <c r="C80" s="17" t="s">
         <v>983</v>
       </c>
@@ -13040,7 +13040,7 @@
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="40"/>
+      <c r="A81" s="45"/>
       <c r="C81" s="17" t="s">
         <v>983</v>
       </c>
@@ -13064,7 +13064,7 @@
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="40"/>
+      <c r="A82" s="45"/>
       <c r="C82" s="17" t="s">
         <v>983</v>
       </c>
@@ -13088,7 +13088,7 @@
       <c r="U82" s="2"/>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="40"/>
+      <c r="A83" s="45"/>
       <c r="C83" s="17" t="s">
         <v>983</v>
       </c>
@@ -13112,7 +13112,7 @@
       <c r="U83" s="2"/>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="41" t="s">
+      <c r="A84" s="46" t="s">
         <v>998</v>
       </c>
       <c r="B84" t="s">
@@ -13150,7 +13150,7 @@
       <c r="U84" s="2"/>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="41"/>
+      <c r="A85" s="46"/>
       <c r="B85" t="s">
         <v>1831</v>
       </c>
@@ -13186,7 +13186,7 @@
       <c r="U85" s="2"/>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="41"/>
+      <c r="A86" s="46"/>
       <c r="C86" s="17"/>
       <c r="E86" s="3" t="s">
         <v>15</v>
@@ -13219,7 +13219,7 @@
       <c r="U86" s="2"/>
     </row>
     <row r="87" spans="1:21" s="11" customFormat="1">
-      <c r="A87" s="41"/>
+      <c r="A87" s="46"/>
       <c r="C87" s="10"/>
       <c r="E87" s="12" t="s">
         <v>15</v>
@@ -13256,7 +13256,7 @@
       <c r="U87" s="10"/>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="41"/>
+      <c r="A88" s="46"/>
       <c r="C88" s="17" t="s">
         <v>983</v>
       </c>
@@ -13291,7 +13291,7 @@
       <c r="U88" s="2"/>
     </row>
     <row r="89" spans="1:21" s="11" customFormat="1">
-      <c r="A89" s="41"/>
+      <c r="A89" s="46"/>
       <c r="C89" s="10"/>
       <c r="E89" s="12" t="s">
         <v>15</v>
@@ -13330,7 +13330,7 @@
       <c r="U89" s="10"/>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="41"/>
+      <c r="A90" s="46"/>
       <c r="C90" s="17" t="s">
         <v>983</v>
       </c>
@@ -13365,7 +13365,7 @@
       <c r="U90" s="2"/>
     </row>
     <row r="91" spans="1:21" s="11" customFormat="1">
-      <c r="A91" s="41"/>
+      <c r="A91" s="46"/>
       <c r="C91" s="10"/>
       <c r="E91" s="12" t="s">
         <v>15</v>
@@ -13406,7 +13406,7 @@
       <c r="U91" s="10"/>
     </row>
     <row r="92" spans="1:21">
-      <c r="A92" s="41"/>
+      <c r="A92" s="46"/>
       <c r="C92" s="17" t="s">
         <v>983</v>
       </c>
@@ -13441,7 +13441,7 @@
       <c r="U92" s="2"/>
     </row>
     <row r="93" spans="1:21" s="11" customFormat="1">
-      <c r="A93" s="41"/>
+      <c r="A93" s="46"/>
       <c r="C93" s="10"/>
       <c r="E93" s="12" t="s">
         <v>15</v>
@@ -13478,7 +13478,7 @@
       <c r="U93" s="10"/>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="41"/>
+      <c r="A94" s="46"/>
       <c r="C94" s="17" t="s">
         <v>983</v>
       </c>
@@ -13513,7 +13513,7 @@
       <c r="U94" s="2"/>
     </row>
     <row r="95" spans="1:21" s="11" customFormat="1">
-      <c r="A95" s="41"/>
+      <c r="A95" s="46"/>
       <c r="C95" s="10"/>
       <c r="E95" s="12" t="s">
         <v>15</v>
@@ -13550,7 +13550,7 @@
       <c r="U95" s="10"/>
     </row>
     <row r="96" spans="1:21">
-      <c r="A96" s="41"/>
+      <c r="A96" s="46"/>
       <c r="E96" s="3" t="s">
         <v>15</v>
       </c>
@@ -13582,7 +13582,7 @@
       <c r="U96" s="2"/>
     </row>
     <row r="97" spans="1:21">
-      <c r="A97" s="41"/>
+      <c r="A97" s="46"/>
       <c r="E97" s="3" t="s">
         <v>15</v>
       </c>
@@ -13614,7 +13614,7 @@
       <c r="U97" s="2"/>
     </row>
     <row r="98" spans="1:21">
-      <c r="A98" s="41"/>
+      <c r="A98" s="46"/>
       <c r="C98" s="17" t="s">
         <v>983</v>
       </c>
@@ -13649,7 +13649,7 @@
       <c r="U98" s="2"/>
     </row>
     <row r="99" spans="1:21" s="11" customFormat="1">
-      <c r="A99" s="41"/>
+      <c r="A99" s="46"/>
       <c r="C99" s="10"/>
       <c r="E99" s="12" t="s">
         <v>15</v>
@@ -13686,7 +13686,7 @@
       <c r="U99" s="10"/>
     </row>
     <row r="100" spans="1:21">
-      <c r="A100" s="41"/>
+      <c r="A100" s="46"/>
       <c r="C100" s="17" t="s">
         <v>983</v>
       </c>
@@ -13721,7 +13721,7 @@
       <c r="U100" s="2"/>
     </row>
     <row r="101" spans="1:21" s="11" customFormat="1">
-      <c r="A101" s="41"/>
+      <c r="A101" s="46"/>
       <c r="C101" s="10"/>
       <c r="E101" s="12" t="s">
         <v>15</v>
@@ -13760,7 +13760,7 @@
       <c r="U101" s="10"/>
     </row>
     <row r="102" spans="1:21">
-      <c r="A102" s="41"/>
+      <c r="A102" s="46"/>
       <c r="E102" s="3" t="s">
         <v>15</v>
       </c>
@@ -13792,7 +13792,7 @@
       <c r="U102" s="2"/>
     </row>
     <row r="103" spans="1:21">
-      <c r="A103" s="41"/>
+      <c r="A103" s="46"/>
       <c r="C103" s="17" t="s">
         <v>983</v>
       </c>
@@ -13827,7 +13827,7 @@
       <c r="U103" s="2"/>
     </row>
     <row r="104" spans="1:21" s="11" customFormat="1">
-      <c r="A104" s="41"/>
+      <c r="A104" s="46"/>
       <c r="C104" s="10"/>
       <c r="E104" s="12" t="s">
         <v>15</v>
@@ -13866,7 +13866,7 @@
       <c r="U104" s="10"/>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="41"/>
+      <c r="A105" s="46"/>
       <c r="C105" s="17" t="s">
         <v>983</v>
       </c>
@@ -13901,7 +13901,7 @@
       <c r="U105" s="2"/>
     </row>
     <row r="106" spans="1:21" s="11" customFormat="1">
-      <c r="A106" s="41"/>
+      <c r="A106" s="46"/>
       <c r="C106" s="10"/>
       <c r="E106" s="12" t="s">
         <v>15</v>
@@ -13938,7 +13938,7 @@
       <c r="U106" s="10"/>
     </row>
     <row r="107" spans="1:21">
-      <c r="A107" s="41"/>
+      <c r="A107" s="46"/>
       <c r="E107" s="3" t="s">
         <v>15</v>
       </c>
@@ -13970,7 +13970,7 @@
       <c r="U107" s="2"/>
     </row>
     <row r="108" spans="1:21">
-      <c r="A108" s="41"/>
+      <c r="A108" s="46"/>
       <c r="C108" t="s">
         <v>983</v>
       </c>
@@ -14003,7 +14003,7 @@
       <c r="U108" s="2"/>
     </row>
     <row r="109" spans="1:21" s="11" customFormat="1">
-      <c r="A109" s="41"/>
+      <c r="A109" s="46"/>
       <c r="C109" s="10"/>
       <c r="E109" s="12" t="s">
         <v>15</v>
@@ -14042,7 +14042,7 @@
       <c r="U109" s="10"/>
     </row>
     <row r="110" spans="1:21">
-      <c r="A110" s="41"/>
+      <c r="A110" s="46"/>
       <c r="E110" s="3" t="s">
         <v>15</v>
       </c>
@@ -14072,7 +14072,7 @@
       <c r="U110" s="2"/>
     </row>
     <row r="111" spans="1:21">
-      <c r="A111" s="41"/>
+      <c r="A111" s="46"/>
       <c r="C111" t="s">
         <v>983</v>
       </c>
@@ -14105,7 +14105,7 @@
       <c r="U111" s="2"/>
     </row>
     <row r="112" spans="1:21" s="11" customFormat="1">
-      <c r="A112" s="41"/>
+      <c r="A112" s="46"/>
       <c r="C112" s="10"/>
       <c r="E112" s="12" t="s">
         <v>15</v>
@@ -14144,7 +14144,7 @@
       <c r="U112" s="10"/>
     </row>
     <row r="113" spans="1:21">
-      <c r="A113" s="41"/>
+      <c r="A113" s="46"/>
       <c r="C113" t="s">
         <v>983</v>
       </c>
@@ -14179,7 +14179,7 @@
       <c r="U113" s="2"/>
     </row>
     <row r="114" spans="1:21" s="11" customFormat="1">
-      <c r="A114" s="41"/>
+      <c r="A114" s="46"/>
       <c r="C114" s="10"/>
       <c r="E114" s="12" t="s">
         <v>15</v>
@@ -14216,7 +14216,7 @@
       <c r="U114" s="10"/>
     </row>
     <row r="115" spans="1:21">
-      <c r="A115" s="40" t="s">
+      <c r="A115" s="45" t="s">
         <v>1000</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -14242,7 +14242,7 @@
       <c r="S115" s="2"/>
     </row>
     <row r="116" spans="1:21">
-      <c r="A116" s="40"/>
+      <c r="A116" s="45"/>
       <c r="E116" s="1" t="s">
         <v>343</v>
       </c>
@@ -14266,7 +14266,7 @@
       <c r="S116" s="2"/>
     </row>
     <row r="117" spans="1:21">
-      <c r="A117" s="40"/>
+      <c r="A117" s="45"/>
       <c r="E117" s="1" t="s">
         <v>343</v>
       </c>
@@ -14290,7 +14290,7 @@
       <c r="S117" s="2"/>
     </row>
     <row r="118" spans="1:21">
-      <c r="A118" s="40"/>
+      <c r="A118" s="45"/>
       <c r="E118" s="1" t="s">
         <v>343</v>
       </c>
@@ -14314,7 +14314,7 @@
       <c r="S118" s="2"/>
     </row>
     <row r="119" spans="1:21">
-      <c r="A119" s="40"/>
+      <c r="A119" s="45"/>
       <c r="E119" s="1" t="s">
         <v>343</v>
       </c>
@@ -14338,7 +14338,7 @@
       <c r="S119" s="2"/>
     </row>
     <row r="120" spans="1:21" s="11" customFormat="1">
-      <c r="A120" s="40"/>
+      <c r="A120" s="45"/>
       <c r="C120" s="10" t="s">
         <v>983</v>
       </c>
@@ -14363,7 +14363,7 @@
       <c r="U120" s="10"/>
     </row>
     <row r="121" spans="1:21" s="11" customFormat="1">
-      <c r="A121" s="40"/>
+      <c r="A121" s="45"/>
       <c r="C121" s="10" t="s">
         <v>983</v>
       </c>
@@ -14388,7 +14388,7 @@
       <c r="U121" s="10"/>
     </row>
     <row r="122" spans="1:21" s="11" customFormat="1">
-      <c r="A122" s="40"/>
+      <c r="A122" s="45"/>
       <c r="C122" s="10" t="s">
         <v>983</v>
       </c>
@@ -14413,7 +14413,7 @@
       <c r="U122" s="10"/>
     </row>
     <row r="123" spans="1:21" s="11" customFormat="1">
-      <c r="A123" s="40"/>
+      <c r="A123" s="45"/>
       <c r="C123" s="10" t="s">
         <v>983</v>
       </c>
@@ -14438,7 +14438,7 @@
       <c r="U123" s="10"/>
     </row>
     <row r="124" spans="1:21" s="11" customFormat="1">
-      <c r="A124" s="40"/>
+      <c r="A124" s="45"/>
       <c r="C124" s="10" t="s">
         <v>983</v>
       </c>
@@ -14467,7 +14467,7 @@
       <c r="U124" s="10"/>
     </row>
     <row r="125" spans="1:21">
-      <c r="A125" s="40" t="s">
+      <c r="A125" s="45" t="s">
         <v>999</v>
       </c>
       <c r="C125" s="19" t="s">
@@ -14481,7 +14481,7 @@
       </c>
     </row>
     <row r="126" spans="1:21">
-      <c r="A126" s="40"/>
+      <c r="A126" s="45"/>
       <c r="E126" s="1" t="s">
         <v>15</v>
       </c>
@@ -14507,7 +14507,7 @@
       <c r="P126" s="2"/>
     </row>
     <row r="127" spans="1:21">
-      <c r="A127" s="40"/>
+      <c r="A127" s="45"/>
       <c r="E127" s="1" t="s">
         <v>15</v>
       </c>
@@ -14533,7 +14533,7 @@
       <c r="P127" s="2"/>
     </row>
     <row r="128" spans="1:21">
-      <c r="A128" s="40"/>
+      <c r="A128" s="45"/>
       <c r="E128" s="1" t="s">
         <v>15</v>
       </c>
@@ -14556,7 +14556,7 @@
       <c r="O128" s="2"/>
     </row>
     <row r="129" spans="1:21">
-      <c r="A129" s="40"/>
+      <c r="A129" s="45"/>
       <c r="E129" s="1" t="s">
         <v>15</v>
       </c>
@@ -14582,7 +14582,7 @@
       <c r="P129" s="2"/>
     </row>
     <row r="130" spans="1:21" s="11" customFormat="1" ht="17" customHeight="1">
-      <c r="A130" s="40"/>
+      <c r="A130" s="45"/>
       <c r="C130" s="10" t="s">
         <v>983</v>
       </c>
@@ -14615,7 +14615,7 @@
       <c r="U130" s="10"/>
     </row>
     <row r="131" spans="1:21" s="11" customFormat="1">
-      <c r="A131" s="40"/>
+      <c r="A131" s="45"/>
       <c r="C131" s="10" t="s">
         <v>983</v>
       </c>
@@ -14648,7 +14648,7 @@
       <c r="U131" s="10"/>
     </row>
     <row r="132" spans="1:21" s="11" customFormat="1">
-      <c r="A132" s="40"/>
+      <c r="A132" s="45"/>
       <c r="C132" s="10" t="s">
         <v>983</v>
       </c>
@@ -14683,7 +14683,7 @@
       <c r="U132" s="10"/>
     </row>
     <row r="133" spans="1:21">
-      <c r="A133" s="40"/>
+      <c r="A133" s="45"/>
       <c r="C133" s="17" t="s">
         <v>983</v>
       </c>
@@ -14710,7 +14710,7 @@
       <c r="U133" s="2"/>
     </row>
     <row r="134" spans="1:21" s="11" customFormat="1">
-      <c r="A134" s="40"/>
+      <c r="A134" s="45"/>
       <c r="C134" s="10" t="s">
         <v>983</v>
       </c>
@@ -14743,7 +14743,7 @@
       <c r="U134" s="10"/>
     </row>
     <row r="135" spans="1:21" s="11" customFormat="1">
-      <c r="A135" s="40"/>
+      <c r="A135" s="45"/>
       <c r="C135" s="10" t="s">
         <v>983</v>
       </c>
@@ -14778,7 +14778,7 @@
       <c r="U135" s="10"/>
     </row>
     <row r="136" spans="1:21" s="11" customFormat="1">
-      <c r="A136" s="40"/>
+      <c r="A136" s="45"/>
       <c r="C136" s="10" t="s">
         <v>983</v>
       </c>
@@ -14811,7 +14811,7 @@
       <c r="U136" s="10"/>
     </row>
     <row r="137" spans="1:21" s="11" customFormat="1">
-      <c r="A137" s="40"/>
+      <c r="A137" s="45"/>
       <c r="C137" s="10" t="s">
         <v>983</v>
       </c>
@@ -14842,7 +14842,7 @@
       <c r="U137" s="10"/>
     </row>
     <row r="138" spans="1:21" s="11" customFormat="1">
-      <c r="A138" s="40"/>
+      <c r="A138" s="45"/>
       <c r="C138" s="10" t="s">
         <v>983</v>
       </c>
@@ -14875,7 +14875,7 @@
       <c r="U138" s="10"/>
     </row>
     <row r="139" spans="1:21" s="11" customFormat="1">
-      <c r="A139" s="40"/>
+      <c r="A139" s="45"/>
       <c r="C139" s="10" t="s">
         <v>983</v>
       </c>
@@ -14906,7 +14906,7 @@
       <c r="U139" s="10"/>
     </row>
     <row r="140" spans="1:21" s="11" customFormat="1">
-      <c r="A140" s="40"/>
+      <c r="A140" s="45"/>
       <c r="C140" s="10" t="s">
         <v>983</v>
       </c>
@@ -14937,7 +14937,7 @@
       <c r="U140" s="10"/>
     </row>
     <row r="141" spans="1:21" s="11" customFormat="1">
-      <c r="A141" s="40"/>
+      <c r="A141" s="45"/>
       <c r="E141" s="9" t="s">
         <v>15</v>
       </c>
@@ -14963,7 +14963,7 @@
       <c r="P141" s="10"/>
     </row>
     <row r="142" spans="1:21">
-      <c r="A142" s="40"/>
+      <c r="A142" s="45"/>
       <c r="E142" s="1" t="s">
         <v>343</v>
       </c>
@@ -14986,7 +14986,7 @@
       <c r="S142" s="2"/>
     </row>
     <row r="143" spans="1:21">
-      <c r="A143" s="40"/>
+      <c r="A143" s="45"/>
       <c r="E143" s="1" t="s">
         <v>343</v>
       </c>
@@ -15010,7 +15010,7 @@
       <c r="T143" s="2"/>
     </row>
     <row r="144" spans="1:21" s="11" customFormat="1">
-      <c r="A144" s="40"/>
+      <c r="A144" s="45"/>
       <c r="E144" s="9" t="s">
         <v>15</v>
       </c>
@@ -15036,7 +15036,7 @@
       <c r="P144" s="10"/>
     </row>
     <row r="145" spans="1:20">
-      <c r="A145" s="40"/>
+      <c r="A145" s="45"/>
       <c r="E145" s="1" t="s">
         <v>343</v>
       </c>
@@ -15060,7 +15060,7 @@
       <c r="T145" s="2"/>
     </row>
     <row r="146" spans="1:20" s="11" customFormat="1">
-      <c r="A146" s="40" t="s">
+      <c r="A146" s="45" t="s">
         <v>1001</v>
       </c>
       <c r="E146" s="9" t="s">
@@ -15085,7 +15085,7 @@
       <c r="S146" s="10"/>
     </row>
     <row r="147" spans="1:20" s="11" customFormat="1">
-      <c r="A147" s="40"/>
+      <c r="A147" s="45"/>
       <c r="E147" s="9" t="s">
         <v>343</v>
       </c>
@@ -15108,7 +15108,7 @@
       <c r="S147" s="10"/>
     </row>
     <row r="148" spans="1:20" s="11" customFormat="1">
-      <c r="A148" s="40"/>
+      <c r="A148" s="45"/>
       <c r="E148" s="9" t="s">
         <v>343</v>
       </c>
@@ -15131,7 +15131,7 @@
       <c r="S148" s="10"/>
     </row>
     <row r="149" spans="1:20">
-      <c r="A149" s="40"/>
+      <c r="A149" s="45"/>
       <c r="E149" s="1" t="s">
         <v>343</v>
       </c>
@@ -15154,7 +15154,7 @@
       <c r="S149" s="2"/>
     </row>
     <row r="150" spans="1:20">
-      <c r="A150" s="40"/>
+      <c r="A150" s="45"/>
       <c r="E150" s="1" t="s">
         <v>15</v>
       </c>
@@ -15180,7 +15180,7 @@
       <c r="P150" s="2"/>
     </row>
     <row r="151" spans="1:20">
-      <c r="A151" s="40"/>
+      <c r="A151" s="45"/>
       <c r="E151" s="1" t="s">
         <v>343</v>
       </c>
@@ -15203,7 +15203,7 @@
       <c r="S151" s="2"/>
     </row>
     <row r="152" spans="1:20">
-      <c r="A152" s="40"/>
+      <c r="A152" s="45"/>
       <c r="E152" s="1" t="s">
         <v>343</v>
       </c>
@@ -15225,7 +15225,7 @@
       <c r="R152" s="2"/>
     </row>
     <row r="153" spans="1:20">
-      <c r="A153" s="40"/>
+      <c r="A153" s="45"/>
       <c r="E153" s="1" t="s">
         <v>343</v>
       </c>
@@ -15247,7 +15247,7 @@
       <c r="R153" s="2"/>
     </row>
     <row r="154" spans="1:20">
-      <c r="A154" s="40"/>
+      <c r="A154" s="45"/>
       <c r="E154" s="1" t="s">
         <v>343</v>
       </c>
@@ -15270,7 +15270,7 @@
       <c r="S154" s="2"/>
     </row>
     <row r="155" spans="1:20" s="11" customFormat="1">
-      <c r="A155" s="40"/>
+      <c r="A155" s="45"/>
       <c r="E155" s="9" t="s">
         <v>343</v>
       </c>
@@ -15293,7 +15293,7 @@
       <c r="S155" s="10"/>
     </row>
     <row r="156" spans="1:20" s="11" customFormat="1">
-      <c r="A156" s="40"/>
+      <c r="A156" s="45"/>
       <c r="E156" s="9" t="s">
         <v>343</v>
       </c>
@@ -15316,7 +15316,7 @@
       <c r="S156" s="10"/>
     </row>
     <row r="157" spans="1:20" s="11" customFormat="1">
-      <c r="A157" s="40"/>
+      <c r="A157" s="45"/>
       <c r="E157" s="9" t="s">
         <v>343</v>
       </c>
@@ -15339,7 +15339,7 @@
       <c r="S157" s="10"/>
     </row>
     <row r="158" spans="1:20" s="11" customFormat="1">
-      <c r="A158" s="40"/>
+      <c r="A158" s="45"/>
       <c r="E158" s="9" t="s">
         <v>343</v>
       </c>
@@ -15362,7 +15362,7 @@
       <c r="S158" s="10"/>
     </row>
     <row r="159" spans="1:20">
-      <c r="A159" s="40"/>
+      <c r="A159" s="45"/>
       <c r="E159" s="1" t="s">
         <v>343</v>
       </c>
@@ -15385,7 +15385,7 @@
       <c r="S159" s="2"/>
     </row>
     <row r="160" spans="1:20">
-      <c r="A160" s="40"/>
+      <c r="A160" s="45"/>
       <c r="E160" s="1" t="s">
         <v>343</v>
       </c>
@@ -15407,7 +15407,7 @@
       <c r="R160" s="2"/>
     </row>
     <row r="161" spans="1:30">
-      <c r="A161" s="40"/>
+      <c r="A161" s="45"/>
       <c r="E161" s="1" t="s">
         <v>343</v>
       </c>
@@ -15429,7 +15429,7 @@
       <c r="R161" s="2"/>
     </row>
     <row r="162" spans="1:30">
-      <c r="A162" s="40"/>
+      <c r="A162" s="45"/>
       <c r="E162" s="1" t="s">
         <v>343</v>
       </c>
@@ -15452,7 +15452,7 @@
       <c r="S162" s="2"/>
     </row>
     <row r="163" spans="1:30">
-      <c r="A163" s="40"/>
+      <c r="A163" s="45"/>
       <c r="E163" s="1" t="s">
         <v>343</v>
       </c>
@@ -15475,7 +15475,7 @@
       <c r="S163" s="2"/>
     </row>
     <row r="164" spans="1:30">
-      <c r="A164" s="40"/>
+      <c r="A164" s="45"/>
       <c r="E164" s="1" t="s">
         <v>343</v>
       </c>
@@ -15498,7 +15498,7 @@
       <c r="S164" s="2"/>
     </row>
     <row r="165" spans="1:30">
-      <c r="A165" s="40"/>
+      <c r="A165" s="45"/>
       <c r="E165" s="1" t="s">
         <v>343</v>
       </c>
@@ -15521,7 +15521,7 @@
       <c r="S165" s="2"/>
     </row>
     <row r="166" spans="1:30">
-      <c r="A166" s="40"/>
+      <c r="A166" s="45"/>
       <c r="E166" s="1" t="s">
         <v>343</v>
       </c>
@@ -15545,7 +15545,7 @@
       <c r="T166" s="2"/>
     </row>
     <row r="167" spans="1:30">
-      <c r="A167" s="40"/>
+      <c r="A167" s="45"/>
       <c r="E167" s="1" t="s">
         <v>343</v>
       </c>
@@ -15567,7 +15567,7 @@
       <c r="R167" s="2"/>
     </row>
     <row r="168" spans="1:30">
-      <c r="A168" s="40"/>
+      <c r="A168" s="45"/>
       <c r="E168" s="1" t="s">
         <v>343</v>
       </c>
@@ -15589,7 +15589,7 @@
       <c r="R168" s="2"/>
     </row>
     <row r="169" spans="1:30">
-      <c r="A169" s="40"/>
+      <c r="A169" s="45"/>
       <c r="E169" s="1" t="s">
         <v>343</v>
       </c>
@@ -15612,7 +15612,7 @@
       <c r="S169" s="2"/>
     </row>
     <row r="170" spans="1:30">
-      <c r="A170" s="40"/>
+      <c r="A170" s="45"/>
       <c r="E170" s="1" t="s">
         <v>343</v>
       </c>
@@ -15635,7 +15635,7 @@
       <c r="S170" s="2"/>
     </row>
     <row r="171" spans="1:30">
-      <c r="A171" s="40"/>
+      <c r="A171" s="45"/>
       <c r="E171" s="1" t="s">
         <v>343</v>
       </c>
@@ -15658,7 +15658,7 @@
       <c r="S171" s="2"/>
     </row>
     <row r="172" spans="1:30">
-      <c r="A172" s="40"/>
+      <c r="A172" s="45"/>
       <c r="E172" s="1" t="s">
         <v>343</v>
       </c>
@@ -15681,7 +15681,7 @@
       <c r="S172" s="2"/>
     </row>
     <row r="173" spans="1:30">
-      <c r="A173" s="40"/>
+      <c r="A173" s="45"/>
       <c r="E173" s="1" t="s">
         <v>343</v>
       </c>
@@ -15705,7 +15705,7 @@
       <c r="T173" s="2"/>
     </row>
     <row r="174" spans="1:30">
-      <c r="A174" s="40"/>
+      <c r="A174" s="45"/>
       <c r="E174" s="1" t="s">
         <v>343</v>
       </c>
@@ -15727,7 +15727,7 @@
       <c r="R174" s="2"/>
     </row>
     <row r="175" spans="1:30">
-      <c r="A175" s="40"/>
+      <c r="A175" s="45"/>
       <c r="E175" s="1" t="s">
         <v>343</v>
       </c>
@@ -15749,7 +15749,7 @@
       <c r="R175" s="2"/>
     </row>
     <row r="176" spans="1:30">
-      <c r="A176" s="40" t="s">
+      <c r="A176" s="45" t="s">
         <v>1002</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -15799,7 +15799,7 @@
       <c r="AD176" s="2"/>
     </row>
     <row r="177" spans="1:30">
-      <c r="A177" s="40"/>
+      <c r="A177" s="45"/>
       <c r="B177" s="1" t="s">
         <v>1828</v>
       </c>
@@ -15844,7 +15844,7 @@
       <c r="AA177" s="2"/>
     </row>
     <row r="178" spans="1:30">
-      <c r="A178" s="40"/>
+      <c r="A178" s="45"/>
       <c r="B178" s="1" t="s">
         <v>1828</v>
       </c>
@@ -15892,7 +15892,7 @@
       <c r="AD178" s="2"/>
     </row>
     <row r="179" spans="1:30">
-      <c r="A179" s="40"/>
+      <c r="A179" s="45"/>
       <c r="B179" s="1" t="s">
         <v>1828</v>
       </c>
@@ -15942,7 +15942,7 @@
       <c r="AD179" s="2"/>
     </row>
     <row r="180" spans="1:30">
-      <c r="A180" s="40"/>
+      <c r="A180" s="45"/>
       <c r="B180" s="1" t="s">
         <v>1828</v>
       </c>
@@ -15992,7 +15992,7 @@
       <c r="AD180" s="2"/>
     </row>
     <row r="181" spans="1:30">
-      <c r="A181" s="40"/>
+      <c r="A181" s="45"/>
       <c r="C181" s="1" t="s">
         <v>2103</v>
       </c>
@@ -16019,7 +16019,7 @@
       <c r="O181" s="2"/>
     </row>
     <row r="182" spans="1:30">
-      <c r="A182" s="40"/>
+      <c r="A182" s="45"/>
       <c r="C182" s="1" t="s">
         <v>2103</v>
       </c>
@@ -16046,7 +16046,7 @@
       <c r="O182" s="2"/>
     </row>
     <row r="183" spans="1:30">
-      <c r="A183" s="40"/>
+      <c r="A183" s="45"/>
       <c r="C183" t="s">
         <v>2103</v>
       </c>
@@ -16077,7 +16077,7 @@
       <c r="O183" s="2"/>
     </row>
     <row r="184" spans="1:30">
-      <c r="A184" s="40"/>
+      <c r="A184" s="45"/>
       <c r="C184" t="s">
         <v>2103</v>
       </c>
@@ -16108,7 +16108,7 @@
       <c r="O184" s="2"/>
     </row>
     <row r="185" spans="1:30">
-      <c r="A185" s="40"/>
+      <c r="A185" s="45"/>
       <c r="C185" t="s">
         <v>2103</v>
       </c>
@@ -16136,7 +16136,7 @@
       <c r="N185" s="2"/>
     </row>
     <row r="186" spans="1:30">
-      <c r="A186" s="40"/>
+      <c r="A186" s="45"/>
       <c r="C186" t="s">
         <v>2103</v>
       </c>
@@ -16164,7 +16164,7 @@
       <c r="N186" s="2"/>
     </row>
     <row r="187" spans="1:30" s="11" customFormat="1">
-      <c r="A187" s="40"/>
+      <c r="A187" s="45"/>
       <c r="C187" s="10" t="s">
         <v>2103</v>
       </c>
@@ -16203,7 +16203,7 @@
       <c r="U187" s="10"/>
     </row>
     <row r="188" spans="1:30" s="11" customFormat="1">
-      <c r="A188" s="40"/>
+      <c r="A188" s="45"/>
       <c r="C188" s="10" t="s">
         <v>2103</v>
       </c>
@@ -16242,7 +16242,7 @@
       <c r="U188" s="10"/>
     </row>
     <row r="189" spans="1:30" s="11" customFormat="1">
-      <c r="A189" s="40"/>
+      <c r="A189" s="45"/>
       <c r="C189" s="10" t="s">
         <v>2103</v>
       </c>
@@ -16281,7 +16281,7 @@
       <c r="U189" s="10"/>
     </row>
     <row r="190" spans="1:30" s="11" customFormat="1">
-      <c r="A190" s="40"/>
+      <c r="A190" s="45"/>
       <c r="C190" s="10" t="s">
         <v>2103</v>
       </c>
@@ -16320,7 +16320,7 @@
       <c r="U190" s="10"/>
     </row>
     <row r="191" spans="1:30" s="11" customFormat="1">
-      <c r="A191" s="40"/>
+      <c r="A191" s="45"/>
       <c r="C191" s="10" t="s">
         <v>2103</v>
       </c>
@@ -16359,7 +16359,7 @@
       <c r="U191" s="10"/>
     </row>
     <row r="192" spans="1:30" s="11" customFormat="1">
-      <c r="A192" s="40"/>
+      <c r="A192" s="45"/>
       <c r="C192" s="10" t="s">
         <v>2103</v>
       </c>
@@ -16398,7 +16398,7 @@
       <c r="U192" s="10"/>
     </row>
     <row r="193" spans="1:30" s="11" customFormat="1">
-      <c r="A193" s="40"/>
+      <c r="A193" s="45"/>
       <c r="C193" s="10" t="s">
         <v>2103</v>
       </c>
@@ -16437,7 +16437,7 @@
       <c r="U193" s="10"/>
     </row>
     <row r="194" spans="1:30" s="11" customFormat="1">
-      <c r="A194" s="40"/>
+      <c r="A194" s="45"/>
       <c r="C194" s="10" t="s">
         <v>2103</v>
       </c>
@@ -16476,7 +16476,7 @@
       <c r="U194" s="10"/>
     </row>
     <row r="195" spans="1:30" s="11" customFormat="1">
-      <c r="A195" s="40"/>
+      <c r="A195" s="45"/>
       <c r="C195" s="10" t="s">
         <v>2103</v>
       </c>
@@ -16515,7 +16515,7 @@
       <c r="U195" s="10"/>
     </row>
     <row r="196" spans="1:30" s="11" customFormat="1">
-      <c r="A196" s="40"/>
+      <c r="A196" s="45"/>
       <c r="C196" s="10" t="s">
         <v>2103</v>
       </c>
@@ -16554,7 +16554,7 @@
       <c r="U196" s="10"/>
     </row>
     <row r="197" spans="1:30" s="11" customFormat="1">
-      <c r="A197" s="40"/>
+      <c r="A197" s="45"/>
       <c r="C197" s="10" t="s">
         <v>2103</v>
       </c>
@@ -16593,7 +16593,7 @@
       <c r="U197" s="10"/>
     </row>
     <row r="198" spans="1:30" s="11" customFormat="1">
-      <c r="A198" s="40"/>
+      <c r="A198" s="45"/>
       <c r="C198" s="10" t="s">
         <v>2103</v>
       </c>
@@ -16632,7 +16632,7 @@
       <c r="U198" s="10"/>
     </row>
     <row r="199" spans="1:30">
-      <c r="A199" s="40"/>
+      <c r="A199" s="45"/>
       <c r="B199" s="1" t="s">
         <v>1828</v>
       </c>
@@ -16682,7 +16682,7 @@
       <c r="AD199" s="2"/>
     </row>
     <row r="200" spans="1:30">
-      <c r="A200" s="40"/>
+      <c r="A200" s="45"/>
       <c r="B200" s="1" t="s">
         <v>1828</v>
       </c>
@@ -16730,7 +16730,7 @@
       <c r="AD200" s="2"/>
     </row>
     <row r="201" spans="1:30">
-      <c r="A201" s="40"/>
+      <c r="A201" s="45"/>
       <c r="B201" s="1" t="s">
         <v>1828</v>
       </c>
@@ -16778,7 +16778,7 @@
       <c r="AD201" s="2"/>
     </row>
     <row r="202" spans="1:30" s="11" customFormat="1">
-      <c r="A202" s="40"/>
+      <c r="A202" s="45"/>
       <c r="C202" s="10" t="s">
         <v>2103</v>
       </c>
@@ -16817,7 +16817,7 @@
       <c r="U202" s="10"/>
     </row>
     <row r="203" spans="1:30" s="11" customFormat="1">
-      <c r="A203" s="40"/>
+      <c r="A203" s="45"/>
       <c r="C203" s="10" t="s">
         <v>2103</v>
       </c>
@@ -16856,7 +16856,7 @@
       <c r="U203" s="10"/>
     </row>
     <row r="204" spans="1:30" s="11" customFormat="1">
-      <c r="A204" s="40"/>
+      <c r="A204" s="45"/>
       <c r="C204" s="10" t="s">
         <v>2103</v>
       </c>
@@ -16895,7 +16895,7 @@
       <c r="U204" s="10"/>
     </row>
     <row r="205" spans="1:30" s="11" customFormat="1">
-      <c r="A205" s="40"/>
+      <c r="A205" s="45"/>
       <c r="C205" s="10" t="s">
         <v>2103</v>
       </c>
@@ -16934,7 +16934,7 @@
       <c r="U205" s="10"/>
     </row>
     <row r="206" spans="1:30" s="11" customFormat="1">
-      <c r="A206" s="40"/>
+      <c r="A206" s="45"/>
       <c r="C206" s="10" t="s">
         <v>2103</v>
       </c>
@@ -16961,7 +16961,7 @@
       <c r="Q206" s="10"/>
     </row>
     <row r="207" spans="1:30" s="11" customFormat="1">
-      <c r="A207" s="40"/>
+      <c r="A207" s="45"/>
       <c r="C207" s="10" t="s">
         <v>2103</v>
       </c>
@@ -16988,7 +16988,7 @@
       <c r="Q207" s="10"/>
     </row>
     <row r="208" spans="1:30" s="11" customFormat="1">
-      <c r="A208" s="40"/>
+      <c r="A208" s="45"/>
       <c r="C208" s="10" t="s">
         <v>2103</v>
       </c>
@@ -17027,7 +17027,7 @@
       <c r="U208" s="10"/>
     </row>
     <row r="209" spans="1:21" s="11" customFormat="1">
-      <c r="A209" s="40"/>
+      <c r="A209" s="45"/>
       <c r="C209" s="10" t="s">
         <v>2103</v>
       </c>
@@ -17066,7 +17066,7 @@
       <c r="U209" s="10"/>
     </row>
     <row r="210" spans="1:21" s="11" customFormat="1">
-      <c r="A210" s="40"/>
+      <c r="A210" s="45"/>
       <c r="C210" s="10" t="s">
         <v>2103</v>
       </c>
@@ -17105,7 +17105,7 @@
       <c r="U210" s="10"/>
     </row>
     <row r="211" spans="1:21" s="11" customFormat="1">
-      <c r="A211" s="40"/>
+      <c r="A211" s="45"/>
       <c r="C211" s="10" t="s">
         <v>2103</v>
       </c>
@@ -17144,7 +17144,7 @@
       <c r="U211" s="10"/>
     </row>
     <row r="212" spans="1:21">
-      <c r="A212" s="40"/>
+      <c r="A212" s="45"/>
       <c r="C212" s="17" t="s">
         <v>2224</v>
       </c>
@@ -17177,7 +17177,7 @@
       <c r="U212" s="2"/>
     </row>
     <row r="213" spans="1:21" s="16" customFormat="1">
-      <c r="A213" s="40"/>
+      <c r="A213" s="45"/>
       <c r="C213" s="17" t="s">
         <v>2224</v>
       </c>
@@ -17212,7 +17212,7 @@
       <c r="U213" s="17"/>
     </row>
     <row r="214" spans="1:21" s="16" customFormat="1">
-      <c r="A214" s="40"/>
+      <c r="A214" s="45"/>
       <c r="C214" s="17" t="s">
         <v>2224</v>
       </c>
@@ -17245,7 +17245,7 @@
       <c r="U214" s="17"/>
     </row>
     <row r="215" spans="1:21" s="16" customFormat="1">
-      <c r="A215" s="40"/>
+      <c r="A215" s="45"/>
       <c r="C215" s="17" t="s">
         <v>2224</v>
       </c>
@@ -17280,7 +17280,7 @@
       <c r="U215" s="17"/>
     </row>
     <row r="216" spans="1:21" s="16" customFormat="1">
-      <c r="A216" s="40"/>
+      <c r="A216" s="45"/>
       <c r="C216" s="17" t="s">
         <v>2224</v>
       </c>
@@ -17308,7 +17308,7 @@
       <c r="P216" s="17"/>
     </row>
     <row r="217" spans="1:21" s="16" customFormat="1">
-      <c r="A217" s="40"/>
+      <c r="A217" s="45"/>
       <c r="C217" s="17" t="s">
         <v>2224</v>
       </c>
@@ -17336,7 +17336,7 @@
       <c r="P217" s="17"/>
     </row>
     <row r="218" spans="1:21" s="16" customFormat="1">
-      <c r="A218" s="40"/>
+      <c r="A218" s="45"/>
       <c r="C218" s="17" t="s">
         <v>2224</v>
       </c>
@@ -17364,7 +17364,7 @@
       <c r="P218" s="17"/>
     </row>
     <row r="219" spans="1:21" s="16" customFormat="1">
-      <c r="A219" s="40"/>
+      <c r="A219" s="45"/>
       <c r="C219" s="17" t="s">
         <v>2224</v>
       </c>
@@ -17392,7 +17392,7 @@
       <c r="P219" s="17"/>
     </row>
     <row r="220" spans="1:21" s="16" customFormat="1">
-      <c r="A220" s="40"/>
+      <c r="A220" s="45"/>
       <c r="C220" s="17" t="s">
         <v>2224</v>
       </c>
@@ -17420,7 +17420,7 @@
       <c r="P220" s="17"/>
     </row>
     <row r="221" spans="1:21" s="16" customFormat="1">
-      <c r="A221" s="40"/>
+      <c r="A221" s="45"/>
       <c r="C221" s="17" t="s">
         <v>2224</v>
       </c>
@@ -17448,7 +17448,7 @@
       <c r="P221" s="17"/>
     </row>
     <row r="222" spans="1:21" s="16" customFormat="1" ht="19" customHeight="1">
-      <c r="A222" s="40"/>
+      <c r="A222" s="45"/>
       <c r="C222" s="17" t="s">
         <v>2103</v>
       </c>
@@ -17476,7 +17476,7 @@
       <c r="P222" s="17"/>
     </row>
     <row r="223" spans="1:21" s="16" customFormat="1">
-      <c r="A223" s="40"/>
+      <c r="A223" s="45"/>
       <c r="C223" s="17" t="s">
         <v>2103</v>
       </c>
@@ -17504,7 +17504,7 @@
       <c r="P223" s="17"/>
     </row>
     <row r="224" spans="1:21" s="16" customFormat="1">
-      <c r="A224" s="40"/>
+      <c r="A224" s="45"/>
       <c r="C224" s="17" t="s">
         <v>2103</v>
       </c>
@@ -17539,7 +17539,7 @@
       <c r="U224" s="17"/>
     </row>
     <row r="225" spans="1:21" s="16" customFormat="1">
-      <c r="A225" s="40"/>
+      <c r="A225" s="45"/>
       <c r="C225" s="17" t="s">
         <v>2103</v>
       </c>
@@ -17574,7 +17574,7 @@
       <c r="U225" s="17"/>
     </row>
     <row r="226" spans="1:21">
-      <c r="A226" s="40"/>
+      <c r="A226" s="45"/>
       <c r="C226" s="39" t="s">
         <v>983</v>
       </c>
@@ -17583,7 +17583,7 @@
       </c>
     </row>
     <row r="227" spans="1:21">
-      <c r="A227" s="40"/>
+      <c r="A227" s="45"/>
       <c r="C227" s="17" t="s">
         <v>2103</v>
       </c>
@@ -17616,7 +17616,7 @@
       <c r="U227" s="2"/>
     </row>
     <row r="228" spans="1:21">
-      <c r="A228" s="40"/>
+      <c r="A228" s="45"/>
       <c r="C228" s="17" t="s">
         <v>2103</v>
       </c>
@@ -17647,7 +17647,7 @@
       <c r="U228" s="2"/>
     </row>
     <row r="229" spans="1:21">
-      <c r="A229" s="40"/>
+      <c r="A229" s="45"/>
       <c r="E229" s="1" t="s">
         <v>343</v>
       </c>
@@ -17673,7 +17673,7 @@
       <c r="S229" s="2"/>
     </row>
     <row r="230" spans="1:21">
-      <c r="A230" s="40"/>
+      <c r="A230" s="45"/>
       <c r="E230" s="1" t="s">
         <v>343</v>
       </c>
@@ -17700,7 +17700,7 @@
       <c r="T230" s="2"/>
     </row>
     <row r="231" spans="1:21">
-      <c r="A231" s="40"/>
+      <c r="A231" s="45"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
@@ -17723,7 +17723,7 @@
       <c r="T231" s="2"/>
     </row>
     <row r="232" spans="1:21">
-      <c r="A232" s="40"/>
+      <c r="A232" s="45"/>
       <c r="C232" t="s">
         <v>2103</v>
       </c>
@@ -17751,7 +17751,7 @@
       <c r="R232" s="2"/>
     </row>
     <row r="233" spans="1:21">
-      <c r="A233" s="40"/>
+      <c r="A233" s="45"/>
       <c r="C233" t="s">
         <v>2103</v>
       </c>
@@ -17779,7 +17779,7 @@
       <c r="R233" s="2"/>
     </row>
     <row r="234" spans="1:21">
-      <c r="A234" s="40"/>
+      <c r="A234" s="45"/>
       <c r="C234" t="s">
         <v>2103</v>
       </c>
@@ -17788,7 +17788,7 @@
       </c>
     </row>
     <row r="235" spans="1:21">
-      <c r="A235" s="40"/>
+      <c r="A235" s="45"/>
       <c r="C235" t="s">
         <v>2103</v>
       </c>
@@ -17816,7 +17816,7 @@
       <c r="P235" s="2"/>
     </row>
     <row r="236" spans="1:21">
-      <c r="A236" s="40"/>
+      <c r="A236" s="45"/>
       <c r="C236" t="s">
         <v>2103</v>
       </c>
@@ -17841,7 +17841,7 @@
       <c r="P236" s="2"/>
     </row>
     <row r="237" spans="1:21">
-      <c r="A237" s="40"/>
+      <c r="A237" s="45"/>
       <c r="C237" s="16" t="s">
         <v>2103</v>
       </c>
@@ -17877,7 +17877,7 @@
       </c>
     </row>
     <row r="238" spans="1:21">
-      <c r="A238" s="40"/>
+      <c r="A238" s="45"/>
       <c r="C238" s="16" t="s">
         <v>2103</v>
       </c>
@@ -17911,7 +17911,7 @@
       <c r="U238" s="2"/>
     </row>
     <row r="239" spans="1:21">
-      <c r="A239" s="40"/>
+      <c r="A239" s="45"/>
       <c r="C239" s="16" t="s">
         <v>2103</v>
       </c>
@@ -17943,7 +17943,7 @@
       <c r="Q239" s="2"/>
     </row>
     <row r="240" spans="1:21">
-      <c r="A240" s="40"/>
+      <c r="A240" s="45"/>
       <c r="C240" s="16" t="s">
         <v>2103</v>
       </c>
@@ -17975,7 +17975,7 @@
       <c r="Q240" s="2"/>
     </row>
     <row r="241" spans="1:21">
-      <c r="A241" s="40"/>
+      <c r="A241" s="45"/>
       <c r="C241" s="16" t="s">
         <v>2103</v>
       </c>
@@ -18007,7 +18007,7 @@
       <c r="Q241" s="2"/>
     </row>
     <row r="242" spans="1:21">
-      <c r="A242" s="40"/>
+      <c r="A242" s="45"/>
       <c r="C242" s="16" t="s">
         <v>2103</v>
       </c>
@@ -18033,7 +18033,7 @@
       <c r="O242" s="2"/>
     </row>
     <row r="243" spans="1:21">
-      <c r="A243" s="40"/>
+      <c r="A243" s="45"/>
       <c r="C243" s="16" t="s">
         <v>2103</v>
       </c>
@@ -18048,7 +18048,7 @@
       </c>
     </row>
     <row r="244" spans="1:21">
-      <c r="A244" s="40"/>
+      <c r="A244" s="45"/>
       <c r="C244" s="16" t="s">
         <v>2103</v>
       </c>
@@ -18063,7 +18063,7 @@
       </c>
     </row>
     <row r="245" spans="1:21">
-      <c r="A245" s="40"/>
+      <c r="A245" s="45"/>
       <c r="B245" s="21"/>
       <c r="C245" s="16" t="s">
         <v>2103</v>
@@ -18079,7 +18079,7 @@
       </c>
     </row>
     <row r="246" spans="1:21">
-      <c r="A246" s="40"/>
+      <c r="A246" s="45"/>
       <c r="B246" s="21"/>
       <c r="C246" s="16" t="s">
         <v>2103</v>
@@ -18095,7 +18095,7 @@
       </c>
     </row>
     <row r="247" spans="1:21">
-      <c r="A247" s="40"/>
+      <c r="A247" s="45"/>
       <c r="B247" s="21"/>
       <c r="C247" s="16" t="s">
         <v>2103</v>
@@ -18111,7 +18111,7 @@
       </c>
     </row>
     <row r="248" spans="1:21">
-      <c r="A248" s="40"/>
+      <c r="A248" s="45"/>
       <c r="E248" s="1" t="s">
         <v>343</v>
       </c>
@@ -18142,7 +18142,7 @@
       <c r="T248" s="2"/>
     </row>
     <row r="249" spans="1:21">
-      <c r="A249" s="40"/>
+      <c r="A249" s="45"/>
       <c r="E249" s="1" t="s">
         <v>343</v>
       </c>
@@ -18173,7 +18173,7 @@
       <c r="T249" s="2"/>
     </row>
     <row r="250" spans="1:21">
-      <c r="A250" s="40"/>
+      <c r="A250" s="45"/>
       <c r="E250" s="1" t="s">
         <v>343</v>
       </c>
@@ -18204,7 +18204,7 @@
       <c r="T250" s="2"/>
     </row>
     <row r="251" spans="1:21">
-      <c r="A251" s="40"/>
+      <c r="A251" s="45"/>
       <c r="E251" s="1" t="s">
         <v>343</v>
       </c>
@@ -18235,7 +18235,7 @@
       <c r="T251" s="2"/>
     </row>
     <row r="252" spans="1:21">
-      <c r="A252" s="40"/>
+      <c r="A252" s="45"/>
       <c r="E252" s="1" t="s">
         <v>343</v>
       </c>
@@ -18266,7 +18266,7 @@
       <c r="T252" s="2"/>
     </row>
     <row r="253" spans="1:21">
-      <c r="A253" s="40"/>
+      <c r="A253" s="45"/>
       <c r="E253" s="1" t="s">
         <v>343</v>
       </c>
@@ -18297,7 +18297,7 @@
       <c r="T253" s="2"/>
     </row>
     <row r="254" spans="1:21">
-      <c r="A254" s="40"/>
+      <c r="A254" s="45"/>
       <c r="E254" s="1" t="s">
         <v>343</v>
       </c>
@@ -18328,7 +18328,7 @@
       <c r="T254" s="2"/>
     </row>
     <row r="255" spans="1:21">
-      <c r="A255" s="40"/>
+      <c r="A255" s="45"/>
       <c r="E255" s="1" t="s">
         <v>343</v>
       </c>
@@ -18360,7 +18360,7 @@
       <c r="U255" s="2"/>
     </row>
     <row r="256" spans="1:21">
-      <c r="A256" s="40"/>
+      <c r="A256" s="45"/>
       <c r="E256" s="1" t="s">
         <v>343</v>
       </c>
@@ -18391,7 +18391,7 @@
       <c r="T256" s="2"/>
     </row>
     <row r="257" spans="1:21">
-      <c r="A257" s="40"/>
+      <c r="A257" s="45"/>
       <c r="E257" s="1" t="s">
         <v>343</v>
       </c>
@@ -18422,7 +18422,7 @@
       <c r="T257" s="2"/>
     </row>
     <row r="258" spans="1:21">
-      <c r="A258" s="40"/>
+      <c r="A258" s="45"/>
       <c r="E258" s="1" t="s">
         <v>343</v>
       </c>
@@ -18453,7 +18453,7 @@
       <c r="T258" s="2"/>
     </row>
     <row r="259" spans="1:21">
-      <c r="A259" s="40"/>
+      <c r="A259" s="45"/>
       <c r="E259" s="1" t="s">
         <v>343</v>
       </c>
@@ -18485,7 +18485,7 @@
       <c r="U259" s="2"/>
     </row>
     <row r="260" spans="1:21">
-      <c r="A260" s="40"/>
+      <c r="A260" s="45"/>
       <c r="C260" t="s">
         <v>2103</v>
       </c>
@@ -18500,7 +18500,7 @@
       </c>
     </row>
     <row r="261" spans="1:21">
-      <c r="A261" s="40"/>
+      <c r="A261" s="45"/>
       <c r="C261" s="16" t="s">
         <v>2103</v>
       </c>
@@ -18515,7 +18515,7 @@
       </c>
     </row>
     <row r="262" spans="1:21">
-      <c r="A262" s="40"/>
+      <c r="A262" s="45"/>
       <c r="C262" t="s">
         <v>2103</v>
       </c>
@@ -18530,7 +18530,7 @@
       </c>
     </row>
     <row r="263" spans="1:21">
-      <c r="A263" s="40"/>
+      <c r="A263" s="45"/>
       <c r="C263" t="s">
         <v>2103</v>
       </c>
@@ -18545,7 +18545,7 @@
       </c>
     </row>
     <row r="264" spans="1:21">
-      <c r="A264" s="40"/>
+      <c r="A264" s="45"/>
       <c r="C264" s="16" t="s">
         <v>2103</v>
       </c>
@@ -18560,7 +18560,7 @@
       </c>
     </row>
     <row r="265" spans="1:21">
-      <c r="A265" s="40"/>
+      <c r="A265" s="45"/>
       <c r="C265" t="s">
         <v>2937</v>
       </c>
@@ -18575,7 +18575,7 @@
       </c>
     </row>
     <row r="266" spans="1:21">
-      <c r="A266" s="40"/>
+      <c r="A266" s="45"/>
       <c r="C266" t="s">
         <v>2103</v>
       </c>
@@ -18590,7 +18590,7 @@
       </c>
     </row>
     <row r="267" spans="1:21">
-      <c r="A267" s="40"/>
+      <c r="A267" s="45"/>
       <c r="C267" t="s">
         <v>2103</v>
       </c>
@@ -18605,7 +18605,7 @@
       </c>
     </row>
     <row r="268" spans="1:21">
-      <c r="A268" s="40"/>
+      <c r="A268" s="45"/>
       <c r="B268" s="21"/>
       <c r="C268" t="s">
         <v>2103</v>
@@ -18621,7 +18621,7 @@
       </c>
     </row>
     <row r="269" spans="1:21">
-      <c r="A269" s="40"/>
+      <c r="A269" s="45"/>
       <c r="C269" t="s">
         <v>2103</v>
       </c>
@@ -18636,7 +18636,7 @@
       </c>
     </row>
     <row r="270" spans="1:21">
-      <c r="A270" s="40"/>
+      <c r="A270" s="45"/>
       <c r="C270" t="s">
         <v>2103</v>
       </c>
@@ -18651,7 +18651,7 @@
       </c>
     </row>
     <row r="271" spans="1:21">
-      <c r="A271" s="40"/>
+      <c r="A271" s="45"/>
       <c r="C271" t="s">
         <v>2103</v>
       </c>
@@ -18666,7 +18666,7 @@
       </c>
     </row>
     <row r="272" spans="1:21">
-      <c r="A272" s="40"/>
+      <c r="A272" s="45"/>
       <c r="C272" t="s">
         <v>2103</v>
       </c>
@@ -18681,7 +18681,7 @@
       </c>
     </row>
     <row r="273" spans="1:10">
-      <c r="A273" s="40"/>
+      <c r="A273" s="45"/>
       <c r="C273" t="s">
         <v>2103</v>
       </c>
@@ -18696,7 +18696,7 @@
       </c>
     </row>
     <row r="274" spans="1:10">
-      <c r="A274" s="40"/>
+      <c r="A274" s="45"/>
       <c r="C274" t="s">
         <v>2103</v>
       </c>
@@ -18711,7 +18711,7 @@
       </c>
     </row>
     <row r="275" spans="1:10">
-      <c r="A275" s="40"/>
+      <c r="A275" s="45"/>
       <c r="C275" t="s">
         <v>2103</v>
       </c>
@@ -18726,7 +18726,7 @@
       </c>
     </row>
     <row r="276" spans="1:10">
-      <c r="A276" s="40"/>
+      <c r="A276" s="45"/>
       <c r="C276" t="s">
         <v>2103</v>
       </c>
@@ -18741,7 +18741,7 @@
       </c>
     </row>
     <row r="277" spans="1:10">
-      <c r="A277" s="40"/>
+      <c r="A277" s="45"/>
       <c r="C277" t="s">
         <v>2103</v>
       </c>
@@ -18756,7 +18756,7 @@
       </c>
     </row>
     <row r="278" spans="1:10">
-      <c r="A278" s="40"/>
+      <c r="A278" s="45"/>
       <c r="C278" t="s">
         <v>2103</v>
       </c>
@@ -18771,7 +18771,7 @@
       </c>
     </row>
     <row r="279" spans="1:10">
-      <c r="A279" s="40"/>
+      <c r="A279" s="45"/>
       <c r="C279" t="s">
         <v>2103</v>
       </c>
@@ -18786,7 +18786,7 @@
       </c>
     </row>
     <row r="280" spans="1:10">
-      <c r="A280" s="40"/>
+      <c r="A280" s="45"/>
       <c r="C280" t="s">
         <v>2103</v>
       </c>
@@ -18801,7 +18801,7 @@
       </c>
     </row>
     <row r="281" spans="1:10">
-      <c r="A281" s="40"/>
+      <c r="A281" s="45"/>
       <c r="C281" t="s">
         <v>2103</v>
       </c>
@@ -18816,7 +18816,7 @@
       </c>
     </row>
     <row r="282" spans="1:10">
-      <c r="A282" s="40"/>
+      <c r="A282" s="45"/>
       <c r="C282" t="s">
         <v>2103</v>
       </c>
@@ -18831,7 +18831,7 @@
       </c>
     </row>
     <row r="283" spans="1:10">
-      <c r="A283" s="40"/>
+      <c r="A283" s="45"/>
       <c r="C283" t="s">
         <v>2103</v>
       </c>
@@ -18846,7 +18846,7 @@
       </c>
     </row>
     <row r="284" spans="1:10">
-      <c r="A284" s="40"/>
+      <c r="A284" s="45"/>
       <c r="C284" t="s">
         <v>2103</v>
       </c>
@@ -18861,7 +18861,7 @@
       </c>
     </row>
     <row r="285" spans="1:10">
-      <c r="A285" s="40"/>
+      <c r="A285" s="45"/>
       <c r="C285" t="s">
         <v>2103</v>
       </c>
@@ -18876,7 +18876,7 @@
       </c>
     </row>
     <row r="286" spans="1:10">
-      <c r="A286" s="40"/>
+      <c r="A286" s="45"/>
       <c r="C286" t="s">
         <v>2103</v>
       </c>
@@ -18891,7 +18891,7 @@
       </c>
     </row>
     <row r="287" spans="1:10">
-      <c r="A287" s="40"/>
+      <c r="A287" s="45"/>
       <c r="C287" t="s">
         <v>2103</v>
       </c>
@@ -18906,7 +18906,7 @@
       </c>
     </row>
     <row r="288" spans="1:10">
-      <c r="A288" s="40"/>
+      <c r="A288" s="45"/>
       <c r="C288" t="s">
         <v>2103</v>
       </c>
@@ -18921,7 +18921,7 @@
       </c>
     </row>
     <row r="289" spans="1:10">
-      <c r="A289" s="40"/>
+      <c r="A289" s="45"/>
       <c r="C289" t="s">
         <v>2103</v>
       </c>
@@ -18936,7 +18936,7 @@
       </c>
     </row>
     <row r="290" spans="1:10">
-      <c r="A290" s="40"/>
+      <c r="A290" s="45"/>
       <c r="C290" t="s">
         <v>2103</v>
       </c>
@@ -18951,7 +18951,7 @@
       </c>
     </row>
     <row r="291" spans="1:10">
-      <c r="A291" s="40"/>
+      <c r="A291" s="45"/>
       <c r="C291" t="s">
         <v>2103</v>
       </c>
@@ -18966,7 +18966,7 @@
       </c>
     </row>
     <row r="292" spans="1:10">
-      <c r="A292" s="40"/>
+      <c r="A292" s="45"/>
       <c r="C292" t="s">
         <v>2103</v>
       </c>
@@ -18981,7 +18981,7 @@
       </c>
     </row>
     <row r="293" spans="1:10">
-      <c r="A293" s="40"/>
+      <c r="A293" s="45"/>
       <c r="C293" t="s">
         <v>2103</v>
       </c>
@@ -18996,7 +18996,7 @@
       </c>
     </row>
     <row r="294" spans="1:10">
-      <c r="A294" s="40"/>
+      <c r="A294" s="45"/>
       <c r="C294" t="s">
         <v>2103</v>
       </c>
@@ -19011,7 +19011,7 @@
       </c>
     </row>
     <row r="295" spans="1:10">
-      <c r="A295" s="40"/>
+      <c r="A295" s="45"/>
       <c r="C295" t="s">
         <v>2103</v>
       </c>
@@ -19026,7 +19026,7 @@
       </c>
     </row>
     <row r="296" spans="1:10">
-      <c r="A296" s="40"/>
+      <c r="A296" s="45"/>
       <c r="C296" t="s">
         <v>2103</v>
       </c>
@@ -19041,7 +19041,7 @@
       </c>
     </row>
     <row r="297" spans="1:10">
-      <c r="A297" s="40"/>
+      <c r="A297" s="45"/>
       <c r="C297" t="s">
         <v>2103</v>
       </c>
@@ -19056,7 +19056,7 @@
       </c>
     </row>
     <row r="298" spans="1:10">
-      <c r="A298" s="40"/>
+      <c r="A298" s="45"/>
       <c r="C298" t="s">
         <v>2103</v>
       </c>
@@ -19071,7 +19071,7 @@
       </c>
     </row>
     <row r="299" spans="1:10">
-      <c r="A299" s="40"/>
+      <c r="A299" s="45"/>
       <c r="C299" t="s">
         <v>2103</v>
       </c>
@@ -19086,7 +19086,7 @@
       </c>
     </row>
     <row r="300" spans="1:10">
-      <c r="A300" s="40"/>
+      <c r="A300" s="45"/>
       <c r="C300" t="s">
         <v>2103</v>
       </c>
@@ -19101,7 +19101,7 @@
       </c>
     </row>
     <row r="301" spans="1:10">
-      <c r="A301" s="40"/>
+      <c r="A301" s="45"/>
       <c r="C301" t="s">
         <v>2103</v>
       </c>
@@ -19116,7 +19116,7 @@
       </c>
     </row>
     <row r="302" spans="1:10">
-      <c r="A302" s="40"/>
+      <c r="A302" s="45"/>
       <c r="C302" t="s">
         <v>2103</v>
       </c>
@@ -19131,7 +19131,7 @@
       </c>
     </row>
     <row r="303" spans="1:10">
-      <c r="A303" s="40"/>
+      <c r="A303" s="45"/>
       <c r="C303" t="s">
         <v>2103</v>
       </c>
@@ -19146,7 +19146,7 @@
       </c>
     </row>
     <row r="304" spans="1:10">
-      <c r="A304" s="40"/>
+      <c r="A304" s="45"/>
       <c r="C304" t="s">
         <v>2103</v>
       </c>
@@ -19161,7 +19161,7 @@
       </c>
     </row>
     <row r="305" spans="1:19">
-      <c r="A305" s="40"/>
+      <c r="A305" s="45"/>
       <c r="C305" t="s">
         <v>2103</v>
       </c>
@@ -19176,7 +19176,7 @@
       </c>
     </row>
     <row r="306" spans="1:19">
-      <c r="A306" s="40"/>
+      <c r="A306" s="45"/>
       <c r="C306" t="s">
         <v>2103</v>
       </c>
@@ -19191,7 +19191,7 @@
       </c>
     </row>
     <row r="307" spans="1:19">
-      <c r="A307" s="40"/>
+      <c r="A307" s="45"/>
       <c r="C307" t="s">
         <v>2103</v>
       </c>
@@ -19206,7 +19206,7 @@
       </c>
     </row>
     <row r="308" spans="1:19">
-      <c r="A308" s="40"/>
+      <c r="A308" s="45"/>
       <c r="C308" t="s">
         <v>2103</v>
       </c>
@@ -19221,7 +19221,7 @@
       </c>
     </row>
     <row r="309" spans="1:19">
-      <c r="A309" s="40"/>
+      <c r="A309" s="45"/>
       <c r="C309" t="s">
         <v>2103</v>
       </c>
@@ -19236,7 +19236,7 @@
       </c>
     </row>
     <row r="310" spans="1:19">
-      <c r="A310" s="40"/>
+      <c r="A310" s="45"/>
       <c r="C310" t="s">
         <v>2103</v>
       </c>
@@ -19251,7 +19251,7 @@
       </c>
     </row>
     <row r="311" spans="1:19">
-      <c r="A311" s="40"/>
+      <c r="A311" s="45"/>
       <c r="C311" t="s">
         <v>2103</v>
       </c>
@@ -19266,7 +19266,7 @@
       </c>
     </row>
     <row r="312" spans="1:19">
-      <c r="A312" s="40"/>
+      <c r="A312" s="45"/>
       <c r="C312" t="s">
         <v>2103</v>
       </c>
@@ -19281,7 +19281,7 @@
       </c>
     </row>
     <row r="313" spans="1:19">
-      <c r="A313" s="40"/>
+      <c r="A313" s="45"/>
       <c r="C313" t="s">
         <v>2103</v>
       </c>
@@ -19296,7 +19296,7 @@
       </c>
     </row>
     <row r="314" spans="1:19">
-      <c r="A314" s="40"/>
+      <c r="A314" s="45"/>
       <c r="C314" t="s">
         <v>2103</v>
       </c>
@@ -19311,7 +19311,7 @@
       </c>
     </row>
     <row r="315" spans="1:19">
-      <c r="A315" s="40"/>
+      <c r="A315" s="45"/>
       <c r="C315" t="s">
         <v>2103</v>
       </c>
@@ -19326,7 +19326,7 @@
       </c>
     </row>
     <row r="316" spans="1:19">
-      <c r="A316" s="40"/>
+      <c r="A316" s="45"/>
       <c r="C316" t="s">
         <v>2103</v>
       </c>
@@ -19341,7 +19341,7 @@
       </c>
     </row>
     <row r="317" spans="1:19">
-      <c r="A317" s="40"/>
+      <c r="A317" s="45"/>
       <c r="C317" t="s">
         <v>2103</v>
       </c>
@@ -19356,7 +19356,7 @@
       </c>
     </row>
     <row r="318" spans="1:19">
-      <c r="A318" s="40" t="s">
+      <c r="A318" s="45" t="s">
         <v>1003</v>
       </c>
       <c r="E318" s="1" t="s">
@@ -19381,7 +19381,7 @@
       <c r="S318" s="2"/>
     </row>
     <row r="319" spans="1:19">
-      <c r="A319" s="40"/>
+      <c r="A319" s="45"/>
       <c r="E319" s="1" t="s">
         <v>343</v>
       </c>
@@ -19402,7 +19402,7 @@
       <c r="Q319" s="2"/>
     </row>
     <row r="320" spans="1:19">
-      <c r="A320" s="40" t="s">
+      <c r="A320" s="45" t="s">
         <v>1004</v>
       </c>
       <c r="E320" s="1" t="s">
@@ -19417,7 +19417,7 @@
       </c>
     </row>
     <row r="321" spans="1:20">
-      <c r="A321" s="40"/>
+      <c r="A321" s="45"/>
       <c r="E321" s="1" t="s">
         <v>343</v>
       </c>
@@ -19430,7 +19430,7 @@
       </c>
     </row>
     <row r="322" spans="1:20">
-      <c r="A322" s="40"/>
+      <c r="A322" s="45"/>
       <c r="E322" s="1" t="s">
         <v>343</v>
       </c>
@@ -19443,7 +19443,7 @@
       </c>
     </row>
     <row r="323" spans="1:20">
-      <c r="A323" s="40"/>
+      <c r="A323" s="45"/>
       <c r="E323" s="1" t="s">
         <v>343</v>
       </c>
@@ -19456,7 +19456,7 @@
       </c>
     </row>
     <row r="324" spans="1:20">
-      <c r="A324" s="40"/>
+      <c r="A324" s="45"/>
       <c r="E324" s="1" t="s">
         <v>343</v>
       </c>
@@ -19469,7 +19469,7 @@
       </c>
     </row>
     <row r="325" spans="1:20">
-      <c r="A325" s="40"/>
+      <c r="A325" s="45"/>
       <c r="E325" s="1" t="s">
         <v>343</v>
       </c>
@@ -19482,7 +19482,7 @@
       </c>
     </row>
     <row r="326" spans="1:20">
-      <c r="A326" s="40"/>
+      <c r="A326" s="45"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
       <c r="G326" s="2"/>
@@ -19491,7 +19491,7 @@
       </c>
     </row>
     <row r="327" spans="1:20">
-      <c r="A327" s="40" t="s">
+      <c r="A327" s="45" t="s">
         <v>1005</v>
       </c>
       <c r="E327" s="1" t="s">
@@ -19516,7 +19516,7 @@
       <c r="S327" s="2"/>
     </row>
     <row r="328" spans="1:20">
-      <c r="A328" s="40"/>
+      <c r="A328" s="45"/>
       <c r="E328" s="1" t="s">
         <v>343</v>
       </c>
@@ -19539,7 +19539,7 @@
       <c r="S328" s="2"/>
     </row>
     <row r="329" spans="1:20">
-      <c r="A329" s="40"/>
+      <c r="A329" s="45"/>
       <c r="E329" s="1" t="s">
         <v>343</v>
       </c>
@@ -19562,7 +19562,7 @@
       <c r="S329" s="2"/>
     </row>
     <row r="330" spans="1:20">
-      <c r="A330" s="40"/>
+      <c r="A330" s="45"/>
       <c r="E330" s="1" t="s">
         <v>343</v>
       </c>
@@ -19586,7 +19586,7 @@
       <c r="T330" s="2"/>
     </row>
     <row r="331" spans="1:20">
-      <c r="A331" s="40"/>
+      <c r="A331" s="45"/>
       <c r="E331" s="1" t="s">
         <v>343</v>
       </c>
@@ -19609,7 +19609,7 @@
       <c r="S331" s="2"/>
     </row>
     <row r="332" spans="1:20">
-      <c r="A332" s="40"/>
+      <c r="A332" s="45"/>
       <c r="E332" s="1" t="s">
         <v>343</v>
       </c>
@@ -19632,7 +19632,7 @@
       <c r="S332" s="2"/>
     </row>
     <row r="333" spans="1:20">
-      <c r="A333" s="40"/>
+      <c r="A333" s="45"/>
       <c r="E333" s="1" t="s">
         <v>343</v>
       </c>
@@ -19656,7 +19656,7 @@
       <c r="T333" s="2"/>
     </row>
     <row r="334" spans="1:20">
-      <c r="A334" s="40"/>
+      <c r="A334" s="45"/>
       <c r="E334" s="1" t="s">
         <v>343</v>
       </c>
@@ -19674,7 +19674,7 @@
       <c r="N334" s="2"/>
     </row>
     <row r="335" spans="1:20">
-      <c r="A335" s="40" t="s">
+      <c r="A335" s="45" t="s">
         <v>1006</v>
       </c>
       <c r="E335" s="1" t="s">
@@ -19698,7 +19698,7 @@
       <c r="R335" s="2"/>
     </row>
     <row r="336" spans="1:20">
-      <c r="A336" s="40"/>
+      <c r="A336" s="45"/>
       <c r="E336" s="1" t="s">
         <v>343</v>
       </c>
@@ -19719,7 +19719,7 @@
       <c r="Q336" s="2"/>
     </row>
     <row r="337" spans="1:21">
-      <c r="A337" s="40"/>
+      <c r="A337" s="45"/>
       <c r="E337" s="1" t="s">
         <v>343</v>
       </c>
@@ -19742,7 +19742,7 @@
       <c r="S337" s="2"/>
     </row>
     <row r="338" spans="1:21">
-      <c r="A338" s="40"/>
+      <c r="A338" s="45"/>
       <c r="E338" s="1" t="s">
         <v>343</v>
       </c>
@@ -19760,7 +19760,7 @@
       <c r="N338" s="2"/>
     </row>
     <row r="339" spans="1:21">
-      <c r="A339" s="40"/>
+      <c r="A339" s="45"/>
       <c r="E339" s="1" t="s">
         <v>15</v>
       </c>
@@ -19786,7 +19786,7 @@
       <c r="P339" s="2"/>
     </row>
     <row r="340" spans="1:21">
-      <c r="A340" s="40"/>
+      <c r="A340" s="45"/>
       <c r="E340" s="1" t="s">
         <v>15</v>
       </c>
@@ -19812,7 +19812,7 @@
       <c r="P340" s="2"/>
     </row>
     <row r="341" spans="1:21">
-      <c r="A341" s="40" t="s">
+      <c r="A341" s="45" t="s">
         <v>1096</v>
       </c>
       <c r="E341" s="2"/>
@@ -19836,7 +19836,7 @@
       <c r="U341" s="2"/>
     </row>
     <row r="342" spans="1:21">
-      <c r="A342" s="40"/>
+      <c r="A342" s="45"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
@@ -19858,7 +19858,7 @@
       <c r="U342" s="2"/>
     </row>
     <row r="343" spans="1:21">
-      <c r="A343" s="40"/>
+      <c r="A343" s="45"/>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
       <c r="G343" s="2"/>
@@ -19880,7 +19880,7 @@
       <c r="U343" s="2"/>
     </row>
     <row r="344" spans="1:21">
-      <c r="A344" s="40"/>
+      <c r="A344" s="45"/>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
       <c r="G344" s="2"/>
@@ -19902,7 +19902,7 @@
       <c r="U344" s="2"/>
     </row>
     <row r="345" spans="1:21">
-      <c r="A345" s="40"/>
+      <c r="A345" s="45"/>
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
@@ -19924,7 +19924,7 @@
       <c r="U345" s="2"/>
     </row>
     <row r="346" spans="1:21">
-      <c r="A346" s="40"/>
+      <c r="A346" s="45"/>
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
@@ -19946,7 +19946,7 @@
       <c r="U346" s="2"/>
     </row>
     <row r="347" spans="1:21">
-      <c r="A347" s="40"/>
+      <c r="A347" s="45"/>
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
       <c r="G347" s="2"/>
@@ -19968,7 +19968,7 @@
       <c r="U347" s="2"/>
     </row>
     <row r="348" spans="1:21">
-      <c r="A348" s="40"/>
+      <c r="A348" s="45"/>
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
       <c r="G348" s="2"/>
@@ -19990,7 +19990,7 @@
       <c r="U348" s="2"/>
     </row>
     <row r="349" spans="1:21">
-      <c r="A349" s="40"/>
+      <c r="A349" s="45"/>
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
@@ -20012,7 +20012,7 @@
       <c r="U349" s="2"/>
     </row>
     <row r="350" spans="1:21">
-      <c r="A350" s="40"/>
+      <c r="A350" s="45"/>
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
@@ -20034,7 +20034,7 @@
       <c r="U350" s="2"/>
     </row>
     <row r="351" spans="1:21">
-      <c r="A351" s="40"/>
+      <c r="A351" s="45"/>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
@@ -20056,7 +20056,7 @@
       <c r="U351" s="2"/>
     </row>
     <row r="352" spans="1:21">
-      <c r="A352" s="40"/>
+      <c r="A352" s="45"/>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -20078,7 +20078,7 @@
       <c r="U352" s="2"/>
     </row>
     <row r="353" spans="1:21">
-      <c r="A353" s="40"/>
+      <c r="A353" s="45"/>
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
@@ -20100,7 +20100,7 @@
       <c r="U353" s="2"/>
     </row>
     <row r="354" spans="1:21">
-      <c r="A354" s="40"/>
+      <c r="A354" s="45"/>
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
       <c r="G354" s="2"/>
@@ -20122,7 +20122,7 @@
       <c r="U354" s="2"/>
     </row>
     <row r="355" spans="1:21">
-      <c r="A355" s="40"/>
+      <c r="A355" s="45"/>
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
@@ -20144,7 +20144,7 @@
       <c r="U355" s="2"/>
     </row>
     <row r="356" spans="1:21">
-      <c r="A356" s="40"/>
+      <c r="A356" s="45"/>
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
@@ -20166,7 +20166,7 @@
       <c r="U356" s="2"/>
     </row>
     <row r="357" spans="1:21">
-      <c r="A357" s="40"/>
+      <c r="A357" s="45"/>
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
       <c r="G357" s="2"/>
@@ -20188,7 +20188,7 @@
       <c r="U357" s="2"/>
     </row>
     <row r="358" spans="1:21">
-      <c r="A358" s="40"/>
+      <c r="A358" s="45"/>
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
       <c r="G358" s="2"/>
@@ -20210,7 +20210,7 @@
       <c r="U358" s="2"/>
     </row>
     <row r="359" spans="1:21">
-      <c r="A359" s="40"/>
+      <c r="A359" s="45"/>
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
       <c r="G359" s="2"/>
@@ -20232,7 +20232,7 @@
       <c r="U359" s="2"/>
     </row>
     <row r="360" spans="1:21">
-      <c r="A360" s="40"/>
+      <c r="A360" s="45"/>
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
       <c r="G360" s="2"/>
@@ -20254,7 +20254,7 @@
       <c r="U360" s="2"/>
     </row>
     <row r="361" spans="1:21">
-      <c r="A361" s="40"/>
+      <c r="A361" s="45"/>
       <c r="E361" s="1" t="s">
         <v>343</v>
       </c>
@@ -20280,7 +20280,7 @@
       <c r="U361" s="2"/>
     </row>
     <row r="362" spans="1:21">
-      <c r="A362" s="40"/>
+      <c r="A362" s="45"/>
       <c r="E362" s="1" t="s">
         <v>343</v>
       </c>
@@ -20306,7 +20306,7 @@
       <c r="U362" s="2"/>
     </row>
     <row r="363" spans="1:21">
-      <c r="A363" s="40"/>
+      <c r="A363" s="45"/>
       <c r="E363" s="1" t="s">
         <v>343</v>
       </c>
@@ -20332,7 +20332,7 @@
       <c r="U363" s="2"/>
     </row>
     <row r="364" spans="1:21">
-      <c r="A364" s="40"/>
+      <c r="A364" s="45"/>
       <c r="E364" s="1" t="s">
         <v>343</v>
       </c>
@@ -20358,7 +20358,7 @@
       <c r="O364" s="2"/>
     </row>
     <row r="365" spans="1:21">
-      <c r="A365" s="40"/>
+      <c r="A365" s="45"/>
       <c r="E365" s="1" t="s">
         <v>343</v>
       </c>
@@ -20392,7 +20392,7 @@
       </c>
     </row>
     <row r="366" spans="1:21">
-      <c r="A366" s="40"/>
+      <c r="A366" s="45"/>
       <c r="E366" s="1" t="s">
         <v>343</v>
       </c>
@@ -20424,7 +20424,7 @@
       <c r="U366" s="2"/>
     </row>
     <row r="367" spans="1:21">
-      <c r="A367" s="40"/>
+      <c r="A367" s="45"/>
       <c r="E367" s="1"/>
       <c r="F367" s="2"/>
       <c r="G367" s="2"/>
@@ -20446,7 +20446,7 @@
       <c r="U367" s="2"/>
     </row>
     <row r="368" spans="1:21">
-      <c r="A368" s="40"/>
+      <c r="A368" s="45"/>
       <c r="E368" s="1"/>
       <c r="F368" s="2"/>
       <c r="G368" s="2"/>
@@ -20468,7 +20468,7 @@
       <c r="U368" s="2"/>
     </row>
     <row r="369" spans="1:21">
-      <c r="A369" s="40"/>
+      <c r="A369" s="45"/>
       <c r="E369" s="1"/>
       <c r="F369" s="2"/>
       <c r="G369" s="2"/>
@@ -20490,7 +20490,7 @@
       <c r="U369" s="2"/>
     </row>
     <row r="370" spans="1:21">
-      <c r="A370" s="40"/>
+      <c r="A370" s="45"/>
       <c r="E370" s="1"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
@@ -20514,7 +20514,7 @@
       <c r="U370" s="2"/>
     </row>
     <row r="371" spans="1:21">
-      <c r="A371" s="40"/>
+      <c r="A371" s="45"/>
       <c r="E371" s="1" t="s">
         <v>343</v>
       </c>
@@ -20548,7 +20548,7 @@
       </c>
     </row>
     <row r="372" spans="1:21">
-      <c r="A372" s="40"/>
+      <c r="A372" s="45"/>
       <c r="E372" s="1" t="s">
         <v>343</v>
       </c>
@@ -20574,7 +20574,7 @@
       <c r="U372" s="2"/>
     </row>
     <row r="373" spans="1:21">
-      <c r="A373" s="40"/>
+      <c r="A373" s="45"/>
       <c r="E373" s="1" t="s">
         <v>343</v>
       </c>
@@ -20600,7 +20600,7 @@
       <c r="U373" s="2"/>
     </row>
     <row r="374" spans="1:21">
-      <c r="A374" s="40"/>
+      <c r="A374" s="45"/>
       <c r="E374" s="1" t="s">
         <v>343</v>
       </c>
@@ -20628,7 +20628,7 @@
       <c r="U374" s="2"/>
     </row>
     <row r="375" spans="1:21">
-      <c r="A375" s="40"/>
+      <c r="A375" s="45"/>
       <c r="E375" s="1" t="s">
         <v>343</v>
       </c>
@@ -20658,7 +20658,7 @@
       </c>
     </row>
     <row r="376" spans="1:21">
-      <c r="A376" s="40"/>
+      <c r="A376" s="45"/>
       <c r="E376" s="1" t="s">
         <v>343</v>
       </c>
@@ -20686,7 +20686,7 @@
       <c r="U376" s="2"/>
     </row>
     <row r="377" spans="1:21">
-      <c r="A377" s="40"/>
+      <c r="A377" s="45"/>
       <c r="E377" s="1" t="s">
         <v>343</v>
       </c>
@@ -20716,7 +20716,7 @@
       </c>
     </row>
     <row r="378" spans="1:21">
-      <c r="A378" s="40"/>
+      <c r="A378" s="45"/>
       <c r="E378" s="1" t="s">
         <v>343</v>
       </c>
@@ -20744,7 +20744,7 @@
       <c r="U378" s="2"/>
     </row>
     <row r="379" spans="1:21">
-      <c r="A379" s="40"/>
+      <c r="A379" s="45"/>
       <c r="E379" s="1"/>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
@@ -20766,7 +20766,7 @@
       <c r="U379" s="2"/>
     </row>
     <row r="380" spans="1:21">
-      <c r="A380" s="40"/>
+      <c r="A380" s="45"/>
       <c r="E380" s="1"/>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
@@ -20788,7 +20788,7 @@
       <c r="U380" s="2"/>
     </row>
     <row r="381" spans="1:21">
-      <c r="A381" s="40"/>
+      <c r="A381" s="45"/>
       <c r="E381" s="1"/>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
@@ -20810,7 +20810,7 @@
       <c r="U381" s="2"/>
     </row>
     <row r="382" spans="1:21">
-      <c r="A382" s="40"/>
+      <c r="A382" s="45"/>
       <c r="E382" s="1" t="s">
         <v>343</v>
       </c>
@@ -20844,7 +20844,7 @@
       </c>
     </row>
     <row r="383" spans="1:21">
-      <c r="A383" s="40"/>
+      <c r="A383" s="45"/>
       <c r="E383" s="1" t="s">
         <v>343</v>
       </c>
@@ -20870,7 +20870,7 @@
       <c r="U383" s="2"/>
     </row>
     <row r="384" spans="1:21">
-      <c r="A384" s="40"/>
+      <c r="A384" s="45"/>
       <c r="E384" s="1" t="s">
         <v>343</v>
       </c>
@@ -20900,7 +20900,7 @@
       </c>
     </row>
     <row r="385" spans="1:21">
-      <c r="A385" s="40"/>
+      <c r="A385" s="45"/>
       <c r="E385" s="1" t="s">
         <v>343</v>
       </c>
@@ -20928,7 +20928,7 @@
       <c r="U385" s="2"/>
     </row>
     <row r="386" spans="1:21">
-      <c r="A386" s="40"/>
+      <c r="A386" s="45"/>
       <c r="E386" s="1" t="s">
         <v>343</v>
       </c>
@@ -20956,7 +20956,7 @@
       <c r="U386" s="2"/>
     </row>
     <row r="387" spans="1:21">
-      <c r="A387" s="40"/>
+      <c r="A387" s="45"/>
       <c r="E387" s="1" t="s">
         <v>343</v>
       </c>
@@ -20992,7 +20992,7 @@
       <c r="U387" s="2"/>
     </row>
     <row r="388" spans="1:21">
-      <c r="A388" s="40"/>
+      <c r="A388" s="45"/>
       <c r="E388" s="1" t="s">
         <v>343</v>
       </c>
@@ -21020,7 +21020,7 @@
       <c r="U388" s="2"/>
     </row>
     <row r="389" spans="1:21">
-      <c r="A389" s="40"/>
+      <c r="A389" s="45"/>
       <c r="E389" s="1" t="s">
         <v>343</v>
       </c>
@@ -21053,7 +21053,7 @@
       <c r="T389" s="2"/>
     </row>
     <row r="390" spans="1:21">
-      <c r="A390" s="40"/>
+      <c r="A390" s="45"/>
       <c r="E390" s="1" t="s">
         <v>343</v>
       </c>
@@ -21081,7 +21081,7 @@
       <c r="U390" s="2"/>
     </row>
     <row r="391" spans="1:21">
-      <c r="A391" s="40"/>
+      <c r="A391" s="45"/>
       <c r="E391" s="1" t="s">
         <v>343</v>
       </c>
@@ -21113,7 +21113,7 @@
       <c r="U391" s="2"/>
     </row>
     <row r="392" spans="1:21">
-      <c r="A392" s="40"/>
+      <c r="A392" s="45"/>
       <c r="E392" s="1"/>
       <c r="F392" s="2"/>
       <c r="G392" s="2"/>
@@ -21135,7 +21135,7 @@
       <c r="U392" s="2"/>
     </row>
     <row r="393" spans="1:21">
-      <c r="A393" s="40"/>
+      <c r="A393" s="45"/>
       <c r="E393" s="1"/>
       <c r="F393" s="2"/>
       <c r="G393" s="2"/>
@@ -21157,7 +21157,7 @@
       <c r="U393" s="2"/>
     </row>
     <row r="394" spans="1:21">
-      <c r="A394" s="40"/>
+      <c r="A394" s="45"/>
       <c r="E394" s="1"/>
       <c r="F394" s="2"/>
       <c r="G394" s="2"/>
@@ -21181,7 +21181,7 @@
       <c r="U394" s="2"/>
     </row>
     <row r="395" spans="1:21">
-      <c r="A395" s="40"/>
+      <c r="A395" s="45"/>
       <c r="E395" s="1" t="s">
         <v>343</v>
       </c>
@@ -21211,7 +21211,7 @@
       <c r="U395" s="1"/>
     </row>
     <row r="396" spans="1:21">
-      <c r="A396" s="40"/>
+      <c r="A396" s="45"/>
       <c r="E396" s="1" t="s">
         <v>343</v>
       </c>
@@ -21248,7 +21248,7 @@
       </c>
     </row>
     <row r="397" spans="1:21">
-      <c r="A397" s="40"/>
+      <c r="A397" s="45"/>
       <c r="E397" s="1" t="s">
         <v>343</v>
       </c>
@@ -21280,7 +21280,7 @@
       <c r="U397" s="2"/>
     </row>
     <row r="398" spans="1:21">
-      <c r="A398" s="40"/>
+      <c r="A398" s="45"/>
       <c r="E398" s="1" t="s">
         <v>343</v>
       </c>
@@ -21315,7 +21315,7 @@
       </c>
     </row>
     <row r="399" spans="1:21">
-      <c r="A399" s="40"/>
+      <c r="A399" s="45"/>
       <c r="E399" s="1" t="s">
         <v>343</v>
       </c>
@@ -21345,7 +21345,7 @@
       <c r="U399" s="2"/>
     </row>
     <row r="400" spans="1:21">
-      <c r="A400" s="40"/>
+      <c r="A400" s="45"/>
       <c r="E400" s="1" t="s">
         <v>343</v>
       </c>
@@ -21378,7 +21378,7 @@
       <c r="T400" s="2"/>
     </row>
     <row r="401" spans="1:21">
-      <c r="A401" s="40"/>
+      <c r="A401" s="45"/>
       <c r="E401" s="1" t="s">
         <v>343</v>
       </c>
@@ -21403,7 +21403,7 @@
       <c r="P401" s="2"/>
     </row>
     <row r="402" spans="1:21">
-      <c r="A402" s="40"/>
+      <c r="A402" s="45"/>
       <c r="E402" s="1" t="s">
         <v>343</v>
       </c>
@@ -21434,7 +21434,7 @@
       </c>
     </row>
     <row r="403" spans="1:21">
-      <c r="A403" s="40"/>
+      <c r="A403" s="45"/>
       <c r="E403" s="1" t="s">
         <v>343</v>
       </c>
@@ -21462,7 +21462,7 @@
       <c r="U403" s="2"/>
     </row>
     <row r="404" spans="1:21">
-      <c r="A404" s="40"/>
+      <c r="A404" s="45"/>
       <c r="E404" s="1" t="s">
         <v>343</v>
       </c>
@@ -21490,7 +21490,7 @@
       <c r="U404" s="2"/>
     </row>
     <row r="405" spans="1:21">
-      <c r="A405" s="40"/>
+      <c r="A405" s="45"/>
       <c r="E405" s="1" t="s">
         <v>343</v>
       </c>
@@ -21514,7 +21514,7 @@
       <c r="Q405" s="2"/>
     </row>
     <row r="406" spans="1:21">
-      <c r="A406" s="40"/>
+      <c r="A406" s="45"/>
       <c r="E406" s="1" t="s">
         <v>343</v>
       </c>
@@ -21545,7 +21545,7 @@
       </c>
     </row>
     <row r="407" spans="1:21">
-      <c r="A407" s="40"/>
+      <c r="A407" s="45"/>
       <c r="E407" s="1" t="s">
         <v>343</v>
       </c>
@@ -21573,7 +21573,7 @@
       <c r="U407" s="2"/>
     </row>
     <row r="408" spans="1:21">
-      <c r="A408" s="40"/>
+      <c r="A408" s="45"/>
       <c r="E408" s="1" t="s">
         <v>343</v>
       </c>
@@ -21601,7 +21601,7 @@
       <c r="U408" s="2"/>
     </row>
     <row r="409" spans="1:21">
-      <c r="A409" s="40"/>
+      <c r="A409" s="45"/>
       <c r="E409" s="1" t="s">
         <v>343</v>
       </c>
@@ -21629,7 +21629,7 @@
       <c r="U409" s="2"/>
     </row>
     <row r="410" spans="1:21">
-      <c r="A410" s="40"/>
+      <c r="A410" s="45"/>
       <c r="E410" s="1" t="s">
         <v>343</v>
       </c>
@@ -21654,7 +21654,7 @@
       <c r="R410" s="2"/>
     </row>
     <row r="411" spans="1:21">
-      <c r="A411" s="40"/>
+      <c r="A411" s="45"/>
       <c r="E411" s="1" t="s">
         <v>343</v>
       </c>
@@ -21684,7 +21684,7 @@
       <c r="Q411" s="2"/>
     </row>
     <row r="412" spans="1:21">
-      <c r="A412" s="40"/>
+      <c r="A412" s="45"/>
       <c r="E412" s="1" t="s">
         <v>343</v>
       </c>
@@ -21710,7 +21710,7 @@
       <c r="U412" s="2"/>
     </row>
     <row r="413" spans="1:21">
-      <c r="A413" s="40"/>
+      <c r="A413" s="45"/>
       <c r="E413" s="1" t="s">
         <v>343</v>
       </c>
@@ -21734,7 +21734,7 @@
       <c r="Q413" s="2"/>
     </row>
     <row r="414" spans="1:21">
-      <c r="A414" s="40"/>
+      <c r="A414" s="45"/>
       <c r="E414" s="1" t="s">
         <v>343</v>
       </c>
@@ -21765,7 +21765,7 @@
       <c r="R414" s="2"/>
     </row>
     <row r="415" spans="1:21">
-      <c r="A415" s="40"/>
+      <c r="A415" s="45"/>
       <c r="E415" s="1" t="s">
         <v>343</v>
       </c>
@@ -21791,7 +21791,7 @@
       <c r="U415" s="2"/>
     </row>
     <row r="416" spans="1:21">
-      <c r="A416" s="40"/>
+      <c r="A416" s="45"/>
       <c r="E416" s="1"/>
       <c r="F416" s="2"/>
       <c r="G416" s="2"/>
@@ -21813,7 +21813,7 @@
       <c r="U416" s="2"/>
     </row>
     <row r="417" spans="1:21">
-      <c r="A417" s="40"/>
+      <c r="A417" s="45"/>
       <c r="E417" s="1"/>
       <c r="F417" s="2"/>
       <c r="G417" s="2"/>
@@ -21835,7 +21835,7 @@
       <c r="U417" s="2"/>
     </row>
     <row r="418" spans="1:21">
-      <c r="A418" s="40"/>
+      <c r="A418" s="45"/>
       <c r="E418" s="1"/>
       <c r="F418" s="2"/>
       <c r="G418" s="2"/>
@@ -21857,7 +21857,7 @@
       <c r="U418" s="2"/>
     </row>
     <row r="419" spans="1:21">
-      <c r="A419" s="40"/>
+      <c r="A419" s="45"/>
       <c r="E419" s="1" t="s">
         <v>343</v>
       </c>
@@ -21889,7 +21889,7 @@
       </c>
     </row>
     <row r="420" spans="1:21">
-      <c r="A420" s="40"/>
+      <c r="A420" s="45"/>
       <c r="E420" s="1" t="s">
         <v>343</v>
       </c>
@@ -21915,7 +21915,7 @@
       <c r="U420" s="2"/>
     </row>
     <row r="421" spans="1:21">
-      <c r="A421" s="40"/>
+      <c r="A421" s="45"/>
       <c r="E421" s="1" t="s">
         <v>343</v>
       </c>
@@ -21941,7 +21941,7 @@
       <c r="U421" s="2"/>
     </row>
     <row r="422" spans="1:21">
-      <c r="A422" s="40"/>
+      <c r="A422" s="45"/>
       <c r="E422" s="1"/>
       <c r="F422" s="2"/>
       <c r="G422" s="2"/>
@@ -21963,7 +21963,7 @@
       <c r="U422" s="2"/>
     </row>
     <row r="423" spans="1:21">
-      <c r="A423" s="40"/>
+      <c r="A423" s="45"/>
       <c r="E423" s="1"/>
       <c r="F423" s="2"/>
       <c r="G423" s="2"/>
@@ -21985,7 +21985,7 @@
       <c r="U423" s="2"/>
     </row>
     <row r="424" spans="1:21">
-      <c r="A424" s="40"/>
+      <c r="A424" s="45"/>
       <c r="E424" s="1" t="s">
         <v>343</v>
       </c>
@@ -22021,7 +22021,7 @@
       </c>
     </row>
     <row r="425" spans="1:21">
-      <c r="A425" s="40"/>
+      <c r="A425" s="45"/>
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
       <c r="G425" s="2"/>
@@ -22043,7 +22043,7 @@
       <c r="U425" s="2"/>
     </row>
     <row r="426" spans="1:21">
-      <c r="A426" s="40"/>
+      <c r="A426" s="45"/>
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
       <c r="G426" s="2"/>
@@ -22065,7 +22065,7 @@
       <c r="U426" s="2"/>
     </row>
     <row r="427" spans="1:21">
-      <c r="A427" s="40"/>
+      <c r="A427" s="45"/>
       <c r="E427" s="1" t="s">
         <v>343</v>
       </c>
@@ -22101,7 +22101,7 @@
       <c r="U427" s="2"/>
     </row>
     <row r="428" spans="1:21">
-      <c r="A428" s="40"/>
+      <c r="A428" s="45"/>
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
       <c r="G428" s="2"/>
@@ -22123,7 +22123,7 @@
       <c r="U428" s="2"/>
     </row>
     <row r="429" spans="1:21">
-      <c r="A429" s="40"/>
+      <c r="A429" s="45"/>
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
       <c r="G429" s="2"/>
@@ -22145,7 +22145,7 @@
       <c r="U429" s="2"/>
     </row>
     <row r="430" spans="1:21">
-      <c r="A430" s="40"/>
+      <c r="A430" s="45"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
       <c r="G430" s="2"/>
@@ -22167,7 +22167,7 @@
       <c r="U430" s="2"/>
     </row>
     <row r="431" spans="1:21">
-      <c r="A431" s="40"/>
+      <c r="A431" s="45"/>
       <c r="E431" s="1" t="s">
         <v>343</v>
       </c>
@@ -22203,7 +22203,7 @@
       <c r="U431" s="2"/>
     </row>
     <row r="432" spans="1:21">
-      <c r="A432" s="40"/>
+      <c r="A432" s="45"/>
       <c r="E432" s="1" t="s">
         <v>343</v>
       </c>
@@ -22241,7 +22241,7 @@
       </c>
     </row>
     <row r="433" spans="1:21">
-      <c r="A433" s="40"/>
+      <c r="A433" s="45"/>
       <c r="E433" s="2" t="s">
         <v>343</v>
       </c>
@@ -22267,7 +22267,7 @@
       <c r="U433" s="2"/>
     </row>
     <row r="434" spans="1:21">
-      <c r="A434" s="40"/>
+      <c r="A434" s="45"/>
       <c r="E434" s="1" t="s">
         <v>343</v>
       </c>
@@ -22303,7 +22303,7 @@
       </c>
     </row>
     <row r="435" spans="1:21">
-      <c r="A435" s="40"/>
+      <c r="A435" s="45"/>
       <c r="E435" s="1" t="s">
         <v>343</v>
       </c>
@@ -22329,7 +22329,7 @@
       <c r="U435" s="2"/>
     </row>
     <row r="436" spans="1:21">
-      <c r="A436" s="40"/>
+      <c r="A436" s="45"/>
       <c r="E436" s="1"/>
       <c r="F436" s="2"/>
       <c r="G436" s="2"/>
@@ -22353,7 +22353,7 @@
       <c r="U436" s="2"/>
     </row>
     <row r="437" spans="1:21">
-      <c r="A437" s="40"/>
+      <c r="A437" s="45"/>
       <c r="E437" s="1" t="s">
         <v>343</v>
       </c>
@@ -22386,7 +22386,7 @@
       <c r="T437" s="2"/>
     </row>
     <row r="438" spans="1:21">
-      <c r="A438" s="40"/>
+      <c r="A438" s="45"/>
       <c r="E438" s="1" t="s">
         <v>343</v>
       </c>
@@ -22412,7 +22412,7 @@
       <c r="U438" s="2"/>
     </row>
     <row r="439" spans="1:21">
-      <c r="A439" s="40"/>
+      <c r="A439" s="45"/>
       <c r="E439" s="1" t="s">
         <v>343</v>
       </c>
@@ -22447,7 +22447,7 @@
       <c r="T439" s="2"/>
     </row>
     <row r="440" spans="1:21">
-      <c r="A440" s="40"/>
+      <c r="A440" s="45"/>
       <c r="E440" s="1"/>
       <c r="F440" s="2"/>
       <c r="G440" s="2"/>
@@ -22469,7 +22469,7 @@
       <c r="U440" s="2"/>
     </row>
     <row r="441" spans="1:21">
-      <c r="A441" s="40"/>
+      <c r="A441" s="45"/>
       <c r="E441" s="1" t="s">
         <v>343</v>
       </c>
@@ -22495,7 +22495,7 @@
       <c r="U441" s="2"/>
     </row>
     <row r="442" spans="1:21">
-      <c r="A442" s="40"/>
+      <c r="A442" s="45"/>
       <c r="E442" s="1"/>
       <c r="F442" s="2"/>
       <c r="G442" s="2"/>
@@ -22517,7 +22517,7 @@
       <c r="U442" s="2"/>
     </row>
     <row r="443" spans="1:21">
-      <c r="A443" s="40"/>
+      <c r="A443" s="45"/>
       <c r="E443" s="1" t="s">
         <v>343</v>
       </c>
@@ -22549,7 +22549,7 @@
       <c r="S443" s="2"/>
     </row>
     <row r="444" spans="1:21">
-      <c r="A444" s="40"/>
+      <c r="A444" s="45"/>
       <c r="E444" s="1" t="s">
         <v>343</v>
       </c>
@@ -22575,7 +22575,7 @@
       <c r="U444" s="2"/>
     </row>
     <row r="445" spans="1:21">
-      <c r="A445" s="40"/>
+      <c r="A445" s="45"/>
       <c r="E445" s="1" t="s">
         <v>343</v>
       </c>
@@ -22607,7 +22607,7 @@
       <c r="S445" s="2"/>
     </row>
     <row r="446" spans="1:21">
-      <c r="A446" s="40"/>
+      <c r="A446" s="45"/>
       <c r="E446" s="1" t="s">
         <v>343</v>
       </c>
@@ -22635,7 +22635,7 @@
       <c r="U446" s="2"/>
     </row>
     <row r="447" spans="1:21">
-      <c r="A447" s="40"/>
+      <c r="A447" s="45"/>
       <c r="E447" s="1" t="s">
         <v>343</v>
       </c>
@@ -22667,7 +22667,7 @@
       <c r="S447" s="2"/>
     </row>
     <row r="448" spans="1:21">
-      <c r="A448" s="40"/>
+      <c r="A448" s="45"/>
       <c r="E448" s="1" t="s">
         <v>343</v>
       </c>
@@ -22695,7 +22695,7 @@
       <c r="U448" s="2"/>
     </row>
     <row r="449" spans="1:21">
-      <c r="A449" s="40"/>
+      <c r="A449" s="45"/>
       <c r="E449" s="1" t="s">
         <v>343</v>
       </c>
@@ -22731,7 +22731,7 @@
       </c>
     </row>
     <row r="450" spans="1:21">
-      <c r="A450" s="40"/>
+      <c r="A450" s="45"/>
       <c r="E450" s="1" t="s">
         <v>343</v>
       </c>
@@ -22759,7 +22759,7 @@
       <c r="U450" s="2"/>
     </row>
     <row r="451" spans="1:21">
-      <c r="A451" s="40"/>
+      <c r="A451" s="45"/>
       <c r="E451" s="1" t="s">
         <v>343</v>
       </c>
@@ -22795,7 +22795,7 @@
       </c>
     </row>
     <row r="452" spans="1:21">
-      <c r="A452" s="40"/>
+      <c r="A452" s="45"/>
       <c r="E452" s="1" t="s">
         <v>343</v>
       </c>
@@ -22823,7 +22823,7 @@
       <c r="U452" s="2"/>
     </row>
     <row r="453" spans="1:21">
-      <c r="A453" s="40"/>
+      <c r="A453" s="45"/>
       <c r="E453" s="1" t="s">
         <v>343</v>
       </c>
@@ -22849,7 +22849,7 @@
       <c r="U453" s="2"/>
     </row>
     <row r="454" spans="1:21">
-      <c r="A454" s="40"/>
+      <c r="A454" s="45"/>
       <c r="E454" s="1" t="s">
         <v>343</v>
       </c>
@@ -22877,7 +22877,7 @@
       <c r="U454" s="2"/>
     </row>
     <row r="455" spans="1:21">
-      <c r="A455" s="40"/>
+      <c r="A455" s="45"/>
       <c r="E455" s="1" t="s">
         <v>343</v>
       </c>
@@ -22903,7 +22903,7 @@
       <c r="U455" s="2"/>
     </row>
     <row r="456" spans="1:21">
-      <c r="A456" s="40"/>
+      <c r="A456" s="45"/>
       <c r="E456" s="1" t="s">
         <v>343</v>
       </c>
@@ -22934,7 +22934,7 @@
       <c r="R456" s="2"/>
     </row>
     <row r="457" spans="1:21">
-      <c r="A457" s="40"/>
+      <c r="A457" s="45"/>
       <c r="E457" s="1" t="s">
         <v>343</v>
       </c>
@@ -22960,7 +22960,7 @@
       <c r="U457" s="2"/>
     </row>
     <row r="458" spans="1:21">
-      <c r="A458" s="40"/>
+      <c r="A458" s="45"/>
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
       <c r="G458" s="2"/>
@@ -22982,7 +22982,7 @@
       <c r="U458" s="2"/>
     </row>
     <row r="459" spans="1:21">
-      <c r="A459" s="40"/>
+      <c r="A459" s="45"/>
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
       <c r="G459" s="2"/>
@@ -23004,7 +23004,7 @@
       <c r="U459" s="2"/>
     </row>
     <row r="460" spans="1:21">
-      <c r="A460" s="40"/>
+      <c r="A460" s="45"/>
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
       <c r="G460" s="2"/>
@@ -23026,7 +23026,7 @@
       <c r="U460" s="2"/>
     </row>
     <row r="461" spans="1:21">
-      <c r="A461" s="40"/>
+      <c r="A461" s="45"/>
       <c r="E461" s="1" t="s">
         <v>343</v>
       </c>
@@ -23061,7 +23061,7 @@
       </c>
     </row>
     <row r="462" spans="1:21">
-      <c r="A462" s="40"/>
+      <c r="A462" s="45"/>
       <c r="E462" s="1" t="s">
         <v>343</v>
       </c>
@@ -23087,7 +23087,7 @@
       <c r="U462" s="2"/>
     </row>
     <row r="463" spans="1:21">
-      <c r="A463" s="40"/>
+      <c r="A463" s="45"/>
       <c r="E463" s="1" t="s">
         <v>343</v>
       </c>
@@ -23115,7 +23115,7 @@
       <c r="U463" s="2"/>
     </row>
     <row r="464" spans="1:21">
-      <c r="A464" s="40"/>
+      <c r="A464" s="45"/>
       <c r="E464" s="1" t="s">
         <v>343</v>
       </c>
@@ -23143,7 +23143,7 @@
       <c r="U464" s="2"/>
     </row>
     <row r="465" spans="1:21">
-      <c r="A465" s="40"/>
+      <c r="A465" s="45"/>
       <c r="E465" s="1" t="s">
         <v>343</v>
       </c>
@@ -23169,7 +23169,7 @@
       <c r="U465" s="2"/>
     </row>
     <row r="466" spans="1:21">
-      <c r="A466" s="40"/>
+      <c r="A466" s="45"/>
       <c r="E466" s="1" t="s">
         <v>343</v>
       </c>
@@ -23195,7 +23195,7 @@
       <c r="Q466" s="2"/>
     </row>
     <row r="467" spans="1:21">
-      <c r="A467" s="40"/>
+      <c r="A467" s="45"/>
       <c r="E467" s="1" t="s">
         <v>343</v>
       </c>
@@ -23223,7 +23223,7 @@
       <c r="U467" s="2"/>
     </row>
     <row r="468" spans="1:21">
-      <c r="A468" s="40"/>
+      <c r="A468" s="45"/>
       <c r="E468" s="1" t="s">
         <v>343</v>
       </c>
@@ -23251,7 +23251,7 @@
       <c r="U468" s="2"/>
     </row>
     <row r="469" spans="1:21">
-      <c r="A469" s="40"/>
+      <c r="A469" s="45"/>
       <c r="E469" s="1" t="s">
         <v>343</v>
       </c>
@@ -23277,7 +23277,7 @@
       <c r="U469" s="2"/>
     </row>
     <row r="470" spans="1:21">
-      <c r="A470" s="40"/>
+      <c r="A470" s="45"/>
       <c r="E470" s="1" t="s">
         <v>343</v>
       </c>
@@ -23305,7 +23305,7 @@
       <c r="U470" s="2"/>
     </row>
     <row r="471" spans="1:21">
-      <c r="A471" s="40"/>
+      <c r="A471" s="45"/>
       <c r="E471" s="1" t="s">
         <v>343</v>
       </c>
@@ -23328,7 +23328,7 @@
       <c r="R471" s="2"/>
     </row>
     <row r="472" spans="1:21">
-      <c r="A472" s="40"/>
+      <c r="A472" s="45"/>
       <c r="E472" s="1" t="s">
         <v>343</v>
       </c>
@@ -23361,7 +23361,7 @@
       </c>
     </row>
     <row r="473" spans="1:21">
-      <c r="A473" s="40"/>
+      <c r="A473" s="45"/>
       <c r="E473" s="1" t="s">
         <v>343</v>
       </c>
@@ -23394,7 +23394,7 @@
       </c>
     </row>
     <row r="474" spans="1:21">
-      <c r="A474" s="40"/>
+      <c r="A474" s="45"/>
       <c r="E474" s="1" t="s">
         <v>343</v>
       </c>
@@ -23429,7 +23429,7 @@
       </c>
     </row>
     <row r="475" spans="1:21">
-      <c r="A475" s="40"/>
+      <c r="A475" s="45"/>
       <c r="E475" s="1" t="s">
         <v>343</v>
       </c>
@@ -23464,7 +23464,7 @@
       </c>
     </row>
     <row r="476" spans="1:21">
-      <c r="A476" s="40"/>
+      <c r="A476" s="45"/>
       <c r="E476" s="1" t="s">
         <v>343</v>
       </c>
@@ -23501,7 +23501,7 @@
       </c>
     </row>
     <row r="477" spans="1:21">
-      <c r="A477" s="40"/>
+      <c r="A477" s="45"/>
       <c r="E477" s="1" t="s">
         <v>343</v>
       </c>
@@ -23538,7 +23538,7 @@
       </c>
     </row>
     <row r="478" spans="1:21">
-      <c r="A478" s="40"/>
+      <c r="A478" s="45"/>
       <c r="E478" s="1" t="s">
         <v>343</v>
       </c>
@@ -23575,7 +23575,7 @@
       </c>
     </row>
     <row r="479" spans="1:21">
-      <c r="A479" s="40"/>
+      <c r="A479" s="45"/>
       <c r="E479" s="1" t="s">
         <v>343</v>
       </c>
@@ -23605,7 +23605,7 @@
       <c r="U479" s="2"/>
     </row>
     <row r="480" spans="1:21">
-      <c r="A480" s="40"/>
+      <c r="A480" s="45"/>
       <c r="E480" s="1" t="s">
         <v>343</v>
       </c>
@@ -23633,7 +23633,7 @@
       <c r="S480" s="2"/>
     </row>
     <row r="481" spans="1:20">
-      <c r="A481" s="40"/>
+      <c r="A481" s="45"/>
       <c r="E481" s="1" t="s">
         <v>343</v>
       </c>
@@ -23657,7 +23657,7 @@
       <c r="O481" s="2"/>
     </row>
     <row r="482" spans="1:20">
-      <c r="A482" s="40"/>
+      <c r="A482" s="45"/>
       <c r="E482" s="1" t="s">
         <v>343</v>
       </c>
@@ -23686,7 +23686,7 @@
       <c r="T482" s="2"/>
     </row>
     <row r="483" spans="1:20">
-      <c r="A483" s="40"/>
+      <c r="A483" s="45"/>
       <c r="E483" s="1" t="s">
         <v>343</v>
       </c>
@@ -23718,7 +23718,7 @@
       <c r="S483" s="2"/>
     </row>
     <row r="484" spans="1:20">
-      <c r="A484" s="40"/>
+      <c r="A484" s="45"/>
       <c r="E484" s="1" t="s">
         <v>343</v>
       </c>
@@ -23754,7 +23754,7 @@
       </c>
     </row>
     <row r="485" spans="1:20">
-      <c r="A485" s="40"/>
+      <c r="A485" s="45"/>
       <c r="E485" s="1" t="s">
         <v>343</v>
       </c>
@@ -23785,7 +23785,7 @@
       <c r="T485" s="2"/>
     </row>
     <row r="486" spans="1:20">
-      <c r="A486" s="40"/>
+      <c r="A486" s="45"/>
       <c r="E486" s="1" t="s">
         <v>343</v>
       </c>
@@ -23817,7 +23817,7 @@
       <c r="S486" s="2"/>
     </row>
     <row r="487" spans="1:20">
-      <c r="A487" s="40"/>
+      <c r="A487" s="45"/>
       <c r="E487" s="1" t="s">
         <v>343</v>
       </c>
@@ -23842,7 +23842,7 @@
       <c r="R487" s="2"/>
     </row>
     <row r="488" spans="1:20">
-      <c r="A488" s="40"/>
+      <c r="A488" s="45"/>
       <c r="E488" s="1" t="s">
         <v>343</v>
       </c>
@@ -23867,7 +23867,7 @@
       <c r="R488" s="2"/>
     </row>
     <row r="489" spans="1:20">
-      <c r="A489" s="40"/>
+      <c r="A489" s="45"/>
       <c r="E489" s="1" t="s">
         <v>343</v>
       </c>
@@ -23891,7 +23891,7 @@
       </c>
     </row>
     <row r="490" spans="1:20">
-      <c r="A490" s="40"/>
+      <c r="A490" s="45"/>
       <c r="E490" s="1" t="s">
         <v>343</v>
       </c>
@@ -23915,7 +23915,7 @@
       </c>
     </row>
     <row r="491" spans="1:20">
-      <c r="A491" s="40"/>
+      <c r="A491" s="45"/>
       <c r="E491" s="1" t="s">
         <v>343</v>
       </c>
@@ -23939,7 +23939,7 @@
       <c r="Q491" s="2"/>
     </row>
     <row r="492" spans="1:20">
-      <c r="A492" s="40"/>
+      <c r="A492" s="45"/>
       <c r="E492" s="1" t="s">
         <v>343</v>
       </c>
@@ -23970,7 +23970,7 @@
       </c>
     </row>
     <row r="493" spans="1:20">
-      <c r="A493" s="40"/>
+      <c r="A493" s="45"/>
       <c r="E493" s="1" t="s">
         <v>343</v>
       </c>
@@ -24001,7 +24001,7 @@
       </c>
     </row>
     <row r="494" spans="1:20">
-      <c r="A494" s="40"/>
+      <c r="A494" s="45"/>
       <c r="E494" s="1" t="s">
         <v>343</v>
       </c>
@@ -24032,7 +24032,7 @@
       </c>
     </row>
     <row r="495" spans="1:20">
-      <c r="A495" s="40"/>
+      <c r="A495" s="45"/>
       <c r="E495" s="1" t="s">
         <v>343</v>
       </c>
@@ -24736,7 +24736,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" customHeight="1">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="44" t="s">
         <v>2314</v>
       </c>
       <c r="B54" s="32" t="s">
@@ -24747,7 +24747,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="43" t="s">
+      <c r="A55" s="41" t="s">
         <v>1013</v>
       </c>
       <c r="B55" s="22" t="s">
@@ -24758,7 +24758,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="43" t="s">
+      <c r="A56" s="41" t="s">
         <v>2952</v>
       </c>
       <c r="B56" t="s">
@@ -24769,7 +24769,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="41" t="s">
         <v>2953</v>
       </c>
       <c r="B57" t="s">
@@ -24780,7 +24780,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="41" t="s">
         <v>2954</v>
       </c>
       <c r="B58" t="s">
@@ -24791,7 +24791,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="41" t="s">
         <v>2955</v>
       </c>
       <c r="B59" t="s">
@@ -24802,12 +24802,12 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="41" t="s">
         <v>2956</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="43" t="s">
+      <c r="A61" s="41" t="s">
         <v>2957</v>
       </c>
       <c r="B61" t="s">
@@ -24818,12 +24818,12 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="41" t="s">
         <v>2958</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="43" t="s">
+      <c r="A63" s="41" t="s">
         <v>2959</v>
       </c>
       <c r="B63" t="s">
@@ -24834,12 +24834,12 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="41" t="s">
         <v>2960</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="43" t="s">
+      <c r="A65" s="41" t="s">
         <v>2961</v>
       </c>
       <c r="B65" t="s">
@@ -24850,7 +24850,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="43" t="s">
+      <c r="A66" s="41" t="s">
         <v>2962</v>
       </c>
       <c r="B66" t="s">
@@ -24861,7 +24861,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="41" t="s">
         <v>2963</v>
       </c>
       <c r="B67" t="s">
@@ -24872,7 +24872,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="41" t="s">
         <v>2964</v>
       </c>
       <c r="B68" t="s">
@@ -24883,7 +24883,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="43" t="s">
+      <c r="A69" s="41" t="s">
         <v>2965</v>
       </c>
       <c r="B69" t="s">
@@ -24894,7 +24894,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="43" t="s">
+      <c r="A70" s="41" t="s">
         <v>2966</v>
       </c>
       <c r="B70" t="s">
@@ -24905,7 +24905,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="43" t="s">
+      <c r="A71" s="41" t="s">
         <v>2967</v>
       </c>
       <c r="B71" t="s">
@@ -24916,7 +24916,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="43" t="s">
+      <c r="A72" s="41" t="s">
         <v>2968</v>
       </c>
       <c r="B72" t="s">
@@ -24927,7 +24927,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="41" t="s">
         <v>2969</v>
       </c>
       <c r="B73" t="s">
@@ -24938,7 +24938,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="43" t="s">
+      <c r="A74" s="41" t="s">
         <v>2970</v>
       </c>
       <c r="B74" t="s">
@@ -24949,7 +24949,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="43" t="s">
+      <c r="A75" s="41" t="s">
         <v>2971</v>
       </c>
       <c r="B75" t="s">
@@ -24960,7 +24960,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="43" t="s">
+      <c r="A76" s="41" t="s">
         <v>2972</v>
       </c>
       <c r="B76" t="s">
@@ -24971,7 +24971,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="43" t="s">
+      <c r="A77" s="41" t="s">
         <v>2973</v>
       </c>
       <c r="B77" t="s">
@@ -24982,7 +24982,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="43" t="s">
+      <c r="A78" s="41" t="s">
         <v>2974</v>
       </c>
       <c r="B78" t="s">
@@ -24993,7 +24993,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="41" t="s">
         <v>2975</v>
       </c>
       <c r="B79" t="s">
@@ -25004,7 +25004,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="43" t="s">
+      <c r="A80" s="41" t="s">
         <v>2976</v>
       </c>
       <c r="B80" t="s">
@@ -25015,7 +25015,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="43" t="s">
+      <c r="A81" s="41" t="s">
         <v>2977</v>
       </c>
       <c r="B81" t="s">
@@ -25026,7 +25026,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="43" t="s">
+      <c r="A82" s="41" t="s">
         <v>2978</v>
       </c>
       <c r="B82" t="s">
@@ -25037,7 +25037,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="43" t="s">
+      <c r="A83" s="41" t="s">
         <v>2979</v>
       </c>
       <c r="B83" t="s">
@@ -25048,7 +25048,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="43" t="s">
+      <c r="A84" s="41" t="s">
         <v>2980</v>
       </c>
       <c r="B84" t="s">
@@ -25059,7 +25059,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="43" t="s">
+      <c r="A85" s="41" t="s">
         <v>2981</v>
       </c>
       <c r="B85" t="s">
@@ -25070,7 +25070,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="43" t="s">
+      <c r="A86" s="41" t="s">
         <v>2982</v>
       </c>
       <c r="B86" t="s">
@@ -25081,10 +25081,10 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="43"/>
+      <c r="A87" s="41"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="44" t="s">
+      <c r="A88" s="42" t="s">
         <v>2952</v>
       </c>
       <c r="B88" t="s">
@@ -25095,7 +25095,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="44" t="s">
+      <c r="A89" s="42" t="s">
         <v>3032</v>
       </c>
       <c r="B89" t="s">
@@ -25106,7 +25106,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="44" t="s">
+      <c r="A90" s="42" t="s">
         <v>3033</v>
       </c>
       <c r="B90" t="s">
@@ -25117,7 +25117,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="44" t="s">
+      <c r="A91" s="42" t="s">
         <v>3034</v>
       </c>
       <c r="B91" t="s">
@@ -25128,7 +25128,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="44" t="s">
+      <c r="A92" s="42" t="s">
         <v>3035</v>
       </c>
       <c r="B92" t="s">
@@ -25139,7 +25139,7 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="44" t="s">
+      <c r="A93" s="42" t="s">
         <v>3036</v>
       </c>
       <c r="B93" s="24" t="s">
@@ -25150,7 +25150,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="44" t="s">
+      <c r="A94" s="42" t="s">
         <v>3037</v>
       </c>
       <c r="B94" t="s">
@@ -25161,12 +25161,12 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="44" t="s">
+      <c r="A95" s="42" t="s">
         <v>3038</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="44" t="s">
+      <c r="A96" s="42" t="s">
         <v>3039</v>
       </c>
       <c r="B96" t="s">
@@ -25177,7 +25177,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="44" t="s">
+      <c r="A97" s="42" t="s">
         <v>3040</v>
       </c>
       <c r="B97" t="s">
@@ -25188,7 +25188,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="44" t="s">
+      <c r="A98" s="42" t="s">
         <v>3041</v>
       </c>
       <c r="B98" t="s">
@@ -25199,7 +25199,7 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="44" t="s">
+      <c r="A99" s="42" t="s">
         <v>3042</v>
       </c>
       <c r="B99" t="s">
@@ -25210,7 +25210,7 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="44" t="s">
+      <c r="A100" s="42" t="s">
         <v>3043</v>
       </c>
       <c r="B100" t="s">
@@ -25221,7 +25221,7 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="44" t="s">
+      <c r="A101" s="42" t="s">
         <v>3044</v>
       </c>
       <c r="B101" s="24" t="s">
@@ -25232,7 +25232,7 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="44" t="s">
+      <c r="A102" s="42" t="s">
         <v>3045</v>
       </c>
       <c r="B102" s="24" t="s">
@@ -25243,7 +25243,7 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="44" t="s">
+      <c r="A103" s="42" t="s">
         <v>3046</v>
       </c>
       <c r="B103" t="s">
@@ -25254,7 +25254,7 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="44" t="s">
+      <c r="A104" s="42" t="s">
         <v>3047</v>
       </c>
       <c r="B104" t="s">
@@ -25265,7 +25265,7 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="44" t="s">
+      <c r="A105" s="42" t="s">
         <v>3048</v>
       </c>
       <c r="B105" t="s">
@@ -25276,37 +25276,37 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="44" t="s">
+      <c r="A106" s="42" t="s">
         <v>3049</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="44" t="s">
+      <c r="A107" s="42" t="s">
         <v>3050</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="44" t="s">
+      <c r="A108" s="42" t="s">
         <v>3051</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="44" t="s">
+      <c r="A109" s="42" t="s">
         <v>3052</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="44" t="s">
+      <c r="A110" s="42" t="s">
         <v>3053</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="44" t="s">
+      <c r="A111" s="42" t="s">
         <v>3054</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="44" t="s">
+      <c r="A112" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="B112" t="s">
@@ -25317,28 +25317,28 @@
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="45" t="s">
+      <c r="A113" s="43" t="s">
         <v>3056</v>
       </c>
-      <c r="B113" s="42" t="s">
+      <c r="B113" s="40" t="s">
         <v>3092</v>
       </c>
-      <c r="C113" s="42" t="s">
+      <c r="C113" s="40" t="s">
         <v>3093</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="44" t="s">
+      <c r="A114" s="42" t="s">
         <v>3057</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="44" t="s">
+      <c r="A115" s="42" t="s">
         <v>3058</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="44" t="s">
+      <c r="A116" s="42" t="s">
         <v>3059</v>
       </c>
     </row>
@@ -33532,7 +33532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBC00A8-69BB-C944-AE92-971EEE98B192}">
   <dimension ref="A1:X195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F180" sqref="F180"/>
     </sheetView>
